--- a/BTH/lessvar/feature_selection/记录_BTH.xlsx
+++ b/BTH/lessvar/feature_selection/记录_BTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\data\BTH\lessvar\feature_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9491433-F92D-4C39-8C51-8D9B2EAB412D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2C59B0-D343-4191-BB90-27D0518C1DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="5797" windowWidth="13245" windowHeight="7283" firstSheet="3" activeTab="3" xr2:uid="{7C1C2EC2-2635-4D58-A33F-B64F5C382C8A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="5" activeTab="13" xr2:uid="{7C1C2EC2-2635-4D58-A33F-B64F5C382C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="选基准项-平行1" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,17 @@
     <sheet name="选基准项-平行2" sheetId="6" r:id="rId3"/>
     <sheet name="单项-平行2" sheetId="7" r:id="rId4"/>
     <sheet name="选基准项-平行3" sheetId="8" r:id="rId5"/>
+    <sheet name="seed111" sheetId="14" r:id="rId6"/>
+    <sheet name="seed222" sheetId="15" r:id="rId7"/>
+    <sheet name="seed333" sheetId="9" r:id="rId8"/>
+    <sheet name="seed444" sheetId="10" r:id="rId9"/>
+    <sheet name="seed555" sheetId="11" r:id="rId10"/>
+    <sheet name="seed666" sheetId="12" r:id="rId11"/>
+    <sheet name="seed777" sheetId="13" r:id="rId12"/>
+    <sheet name="overall" sheetId="16" r:id="rId13"/>
+    <sheet name="correlation" sheetId="17" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="75">
   <si>
     <t>RMSE_test</t>
   </si>
@@ -38,7 +47,7 @@
   </si>
   <si>
     <t>benchmark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SO2_Bias</t>
@@ -48,11 +57,11 @@
   </si>
   <si>
     <t>差值1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>差值2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RH_Bias</t>
@@ -71,42 +80,42 @@
   </si>
   <si>
     <t>第一轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试变量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第二轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>O3_Bias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第三轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NO2_Bias</t>
   </si>
   <si>
     <t>PRE_Bias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WSPD_Bias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第四轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>下面进行Obs单个变量实验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SO2_Obs</t>
@@ -122,7 +131,7 @@
   </si>
   <si>
     <t>PRE_Obs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PBLH_Sim</t>
@@ -132,83 +141,467 @@
   </si>
   <si>
     <t>NO2_Obs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>O3_Obs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RMSE_test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TEM_Obs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WSPD_Obs</t>
   </si>
   <si>
     <t>RH_Obs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RH_Bias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>胜出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SO2_Bias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>无胜出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SOLRAD_Sim</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第五轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第六轮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WSPD_Obs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>seed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>benchmark</t>
+  </si>
+  <si>
+    <t>PRE_Obs</t>
+  </si>
+  <si>
+    <t>与</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5_Bias</t>
+  </si>
+  <si>
+    <t>PM2.5_Bias_ystd</t>
+  </si>
+  <si>
+    <t>PM2.5_Sim</t>
+  </si>
+  <si>
+    <t>NO2_Obs</t>
+  </si>
+  <si>
+    <t>SOLRAD_Sim</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8-1.0 极强相关</t>
+  </si>
+  <si>
+    <t>0.6-0.8 强相关</t>
+  </si>
+  <si>
+    <t>0.4-0.6 中等程度相关</t>
+  </si>
+  <si>
+    <t>0.2-0.4 弱相关</t>
+  </si>
+  <si>
+    <t>0.0-0.2 极弱相关或无相关</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>PM25_Sim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，所以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>NO2_Obs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不加入，</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>若加入了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>SO2_Bias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>SO2_Obs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>不可以加入</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>若加入了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>O3_Obs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>TEM_Obs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>SOLRAD_Sim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>不可加入</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>若加入了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>TEM_Obs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>SOLRAD_Sim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可加入</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5_Bias_ystd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5_Sim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2_Bias与SO2_Obs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEM_Bias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDIR_Bias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若加入了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>PRE_Bias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>PRE_Obs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF404040"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可加入</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_Bias与PRE_Obs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBLH_Sim</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM2.5_Sim、NO2_Obs、NO2_Bias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSPD_Bias、WSPD_Obs、WDIR_Bias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>O3_Obs、O3_Bias、TEM_Obs、TEM_Bias、SOLRAD_Sim、PBLH_Sim、RH_Obs、RH_Bias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,8 +624,93 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF404040"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF404040"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,8 +783,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCC0DA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -314,20 +816,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -336,16 +854,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -354,21 +872,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,7 +886,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -387,13 +907,107 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{298E6F12-E1AD-4265-BC8D-2AC0F025FA2A}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDA9694"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDA9694"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -802,7 +1416,5776 @@
       <c r="C7" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095F44AA-0CC0-41B1-819D-D2F0227F1789}">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="12"/>
+      <c r="B1" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12">
+        <v>33.344999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13">
+        <v>31.716000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>32.137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>32.213999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12">
+        <v>32.002000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12">
+        <v>31.716000000000001</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>32.341000000000001</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12">
+        <v>31.846</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="13">
+        <v>31.449000000000002</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <v>31.785</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <v>31.959</v>
+      </c>
+      <c r="C14" s="12">
+        <v>-0.24299999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12">
+        <v>31.709</v>
+      </c>
+      <c r="C15" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="12">
+        <v>31.449000000000002</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12">
+        <v>31.495999999999999</v>
+      </c>
+      <c r="C17" s="12">
+        <v>-4.7E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13">
+        <v>31.16</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="12">
+        <v>31.561</v>
+      </c>
+      <c r="C19" s="12">
+        <v>-0.113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12">
+        <v>31.434000000000001</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12">
+        <v>31.486000000000001</v>
+      </c>
+      <c r="C21" s="12">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="12">
+        <v>31.16</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12">
+        <v>31.536999999999999</v>
+      </c>
+      <c r="C23" s="12">
+        <v>-0.377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="12">
+        <v>31.446000000000002</v>
+      </c>
+      <c r="C24" s="12">
+        <v>-0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="12">
+        <v>31.995000000000001</v>
+      </c>
+      <c r="C25" s="12">
+        <v>-0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12">
+        <v>31.361999999999998</v>
+      </c>
+      <c r="C26" s="12">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="12">
+        <v>31.16</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="12">
+        <v>31.091999999999999</v>
+      </c>
+      <c r="C30" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="12">
+        <v>30.584</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="12">
+        <v>30.991</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="12">
+        <v>30.634</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="12">
+        <v>30.864000000000001</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="12">
+        <v>31.529</v>
+      </c>
+      <c r="C35" s="12">
+        <v>-0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="12">
+        <v>31.317</v>
+      </c>
+      <c r="C36" s="12">
+        <v>-0.158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="13">
+        <v>30.343</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.81599999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="12">
+        <v>30.343</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="12">
+        <v>30.495999999999999</v>
+      </c>
+      <c r="C39" s="12">
+        <v>-0.152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="12">
+        <v>29.998999999999999</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="12">
+        <v>31.704999999999998</v>
+      </c>
+      <c r="C41" s="12">
+        <v>-1.3620000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="13">
+        <v>29.859000000000002</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="12">
+        <v>31.498999999999999</v>
+      </c>
+      <c r="C43" s="12">
+        <v>-1.1559999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="12">
+        <v>31.731999999999999</v>
+      </c>
+      <c r="C44" s="12">
+        <v>-1.389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="12">
+        <v>30.446999999999999</v>
+      </c>
+      <c r="C45" s="12">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="12">
+        <v>29.859000000000002</v>
+      </c>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="12">
+        <v>29.989000000000001</v>
+      </c>
+      <c r="C47" s="12">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="12">
+        <v>30.475999999999999</v>
+      </c>
+      <c r="C48" s="12">
+        <v>-0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="12">
+        <v>30.870999999999999</v>
+      </c>
+      <c r="C49" s="12">
+        <v>-1.012</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="12">
+        <v>33.198</v>
+      </c>
+      <c r="C50" s="12">
+        <v>-3.339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="12">
+        <v>29.87</v>
+      </c>
+      <c r="C51" s="12">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="12">
+        <v>30.771000000000001</v>
+      </c>
+      <c r="C52" s="12">
+        <v>-0.91200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703C5F12-D8E3-4A31-BA9E-7207F88EA1CB}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="12"/>
+      <c r="B1" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13">
+        <v>32.162999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>32.368000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>32.533999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>33.098999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12">
+        <v>33.649000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12">
+        <v>32.162999999999997</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>32.363999999999997</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12">
+        <v>31.946000000000002</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13">
+        <v>31.611000000000001</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <v>32.268999999999998</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-0.106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <v>32.180999999999997</v>
+      </c>
+      <c r="C14" s="12">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12">
+        <v>31.846</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="12">
+        <v>31.611000000000001</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12">
+        <v>32.895000000000003</v>
+      </c>
+      <c r="C17" s="12">
+        <v>-1.284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12">
+        <v>32.76</v>
+      </c>
+      <c r="C18" s="12">
+        <v>-1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="13">
+        <v>31.29</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12">
+        <v>31.507999999999999</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12">
+        <v>32.899000000000001</v>
+      </c>
+      <c r="C21" s="12">
+        <v>-1.2889999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="12">
+        <v>31.29</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12">
+        <v>31.218</v>
+      </c>
+      <c r="C23" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="12">
+        <v>31.439</v>
+      </c>
+      <c r="C24" s="12">
+        <v>-0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="12">
+        <v>32.517000000000003</v>
+      </c>
+      <c r="C25" s="12">
+        <v>-1.2270000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12">
+        <v>31.902000000000001</v>
+      </c>
+      <c r="C26" s="12">
+        <v>-0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="12">
+        <v>31.29</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="12">
+        <v>32.027999999999999</v>
+      </c>
+      <c r="C30" s="12">
+        <v>-0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="12">
+        <v>31.475999999999999</v>
+      </c>
+      <c r="C31" s="12">
+        <v>-0.186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="12">
+        <v>33.472999999999999</v>
+      </c>
+      <c r="C32" s="12">
+        <v>-2.1840000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="13">
+        <v>30.114999999999998</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="12">
+        <v>33.680999999999997</v>
+      </c>
+      <c r="C34" s="12">
+        <v>-2.391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="12">
+        <v>31.963999999999999</v>
+      </c>
+      <c r="C35" s="12">
+        <v>-0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="12">
+        <v>32.344000000000001</v>
+      </c>
+      <c r="C36" s="12">
+        <v>-1.054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="12">
+        <v>31.244</v>
+      </c>
+      <c r="C37" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="12">
+        <v>30.114999999999998</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="12">
+        <v>31.696999999999999</v>
+      </c>
+      <c r="C39" s="12">
+        <v>-1.5820000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="12">
+        <v>30.353999999999999</v>
+      </c>
+      <c r="C40" s="12">
+        <v>-0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="12">
+        <v>32.363999999999997</v>
+      </c>
+      <c r="C41" s="12">
+        <v>-2.2490000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="12">
+        <v>30.434999999999999</v>
+      </c>
+      <c r="C42" s="12">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="12">
+        <v>31.716999999999999</v>
+      </c>
+      <c r="C43" s="12">
+        <v>-1.601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="12">
+        <v>30.285</v>
+      </c>
+      <c r="C44" s="12">
+        <v>-0.16900000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC8ACC7-2DBF-4774-8138-B25F269B2331}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="12"/>
+      <c r="B1" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12">
+        <v>31.585000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13">
+        <v>31.556000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>34.548000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>32.143000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12">
+        <v>34.563000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12">
+        <v>31.556000000000001</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>33.186</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-1.629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="13">
+        <v>31.071000000000002</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12">
+        <v>31.388999999999999</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <v>33.636000000000003</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <v>34.831000000000003</v>
+      </c>
+      <c r="C14" s="12">
+        <v>-3.2749999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12">
+        <v>33.587000000000003</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-2.0310000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="12">
+        <v>31.071000000000002</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12">
+        <v>30.946999999999999</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="12">
+        <v>31.170999999999999</v>
+      </c>
+      <c r="C18" s="12">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="12">
+        <v>31.274000000000001</v>
+      </c>
+      <c r="C19" s="12">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12">
+        <v>31.274999999999999</v>
+      </c>
+      <c r="C20" s="12">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12">
+        <v>33.704999999999998</v>
+      </c>
+      <c r="C21" s="12">
+        <v>-2.6339999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="12"/>
+      <c r="B23" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="12">
+        <v>31.071000000000002</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12">
+        <v>31.196000000000002</v>
+      </c>
+      <c r="C25" s="12">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="12">
+        <v>30.756</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12">
+        <v>30.420999999999999</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="13">
+        <v>30.312000000000001</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="12">
+        <v>30.777000000000001</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="12">
+        <v>31.367000000000001</v>
+      </c>
+      <c r="C30" s="12">
+        <v>-0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="12">
+        <v>30.417000000000002</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="12">
+        <v>32.412999999999997</v>
+      </c>
+      <c r="C32" s="12">
+        <v>-1.341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="12">
+        <v>30.312000000000001</v>
+      </c>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="12">
+        <v>32.100999999999999</v>
+      </c>
+      <c r="C34" s="12">
+        <v>-1.7889999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="12">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="C35" s="12">
+        <v>-0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="12">
+        <v>32.088000000000001</v>
+      </c>
+      <c r="C36" s="12">
+        <v>-1.776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="12">
+        <v>30.204000000000001</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="12">
+        <v>32.808999999999997</v>
+      </c>
+      <c r="C38" s="12">
+        <v>-2.4969999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="13">
+        <v>29.582999999999998</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="12">
+        <v>29.582999999999998</v>
+      </c>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="12">
+        <v>30.175000000000001</v>
+      </c>
+      <c r="C41" s="12">
+        <v>-0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="12">
+        <v>29.861000000000001</v>
+      </c>
+      <c r="C42" s="12">
+        <v>-0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="12">
+        <v>50.554000000000002</v>
+      </c>
+      <c r="C43" s="12">
+        <v>-20.971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="13">
+        <v>29.111000000000001</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="12">
+        <v>32.802999999999997</v>
+      </c>
+      <c r="C45" s="12">
+        <v>-3.2189999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="12">
+        <v>29.111000000000001</v>
+      </c>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="12">
+        <v>29.698</v>
+      </c>
+      <c r="C47" s="12">
+        <v>-0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="12">
+        <v>29.824000000000002</v>
+      </c>
+      <c r="C48" s="12">
+        <v>-0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="12">
+        <v>31.495000000000001</v>
+      </c>
+      <c r="C49" s="12">
+        <v>-2.383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="12">
+        <v>32.768999999999998</v>
+      </c>
+      <c r="C50" s="12">
+        <v>-3.6579999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A8A46E-EBCC-4940-AC80-47A3273B29B1}">
+  <dimension ref="A1:AA52"/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="12"/>
+      <c r="V1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="36">
+        <v>32.174999999999997</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="36">
+        <v>33.692999999999998</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="13">
+        <v>32.116999999999997</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="13">
+        <v>31.594999999999999</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="12">
+        <v>33.344999999999999</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="13">
+        <v>32.162999999999997</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>31.585000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="39">
+        <v>32.06</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="39">
+        <v>31.811</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="12">
+        <v>33.497999999999998</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="12">
+        <v>34.585999999999999</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="13">
+        <v>31.716000000000001</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="12">
+        <v>32.368000000000002</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>31.556000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="36">
+        <v>32.186999999999998</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="36">
+        <v>33.546999999999997</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="12">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="12">
+        <v>31.925999999999998</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="12">
+        <v>32.137</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="12">
+        <v>32.533999999999999</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>34.548000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="36">
+        <v>32.183999999999997</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="36">
+        <v>32.030999999999999</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="12">
+        <v>32.209000000000003</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="12">
+        <v>31.989000000000001</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="12">
+        <v>32.213999999999999</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="12">
+        <v>33.098999999999997</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>32.143000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="36">
+        <v>50.552</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="36">
+        <v>33.219000000000001</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="12">
+        <v>32.292999999999999</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="12">
+        <v>32.048999999999999</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="12">
+        <v>32.002000000000002</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="12">
+        <v>33.649000000000001</v>
+      </c>
+      <c r="Y6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>34.563000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="12"/>
+      <c r="V8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="36">
+        <v>32.06</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="E9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="36">
+        <v>31.811</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="I9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="12">
+        <v>32.116999999999997</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="M9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="12">
+        <v>31.594999999999999</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="Q9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="12">
+        <v>31.716000000000001</v>
+      </c>
+      <c r="S9" s="12"/>
+      <c r="U9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" s="12">
+        <v>32.162999999999997</v>
+      </c>
+      <c r="W9" s="12"/>
+      <c r="Y9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>31.556000000000001</v>
+      </c>
+      <c r="AA9" s="12"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="39">
+        <v>31.440999999999999</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="39">
+        <v>31.352</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="12">
+        <v>31.817</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="13">
+        <v>31.260999999999999</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="12">
+        <v>32.341000000000001</v>
+      </c>
+      <c r="S10" s="12">
+        <v>-0.625</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="12">
+        <v>32.363999999999997</v>
+      </c>
+      <c r="W10" s="12">
+        <v>-0.20100000000000001</v>
+      </c>
+      <c r="Y10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>33.186</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>-1.629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A11" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="36">
+        <v>31.486999999999998</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="36">
+        <v>33.014000000000003</v>
+      </c>
+      <c r="G11" s="36">
+        <v>-1.204</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="13">
+        <v>31.693999999999999</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="12">
+        <v>33.540999999999997</v>
+      </c>
+      <c r="O11" s="12">
+        <v>-1.9450000000000001</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="12">
+        <v>31.846</v>
+      </c>
+      <c r="S11" s="12">
+        <v>-0.13</v>
+      </c>
+      <c r="U11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V11" s="12">
+        <v>31.946000000000002</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0.217</v>
+      </c>
+      <c r="Y11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>31.071000000000002</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A12" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="36">
+        <v>33.103999999999999</v>
+      </c>
+      <c r="C12" s="36">
+        <v>-1.044</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="36">
+        <v>32.588999999999999</v>
+      </c>
+      <c r="G12" s="36">
+        <v>-0.77800000000000002</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="12">
+        <v>31.753</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="12">
+        <v>33.627000000000002</v>
+      </c>
+      <c r="O12" s="12">
+        <v>-2.0310000000000001</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="13">
+        <v>31.449000000000002</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="13">
+        <v>31.611000000000001</v>
+      </c>
+      <c r="W12" s="13">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>31.388999999999999</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="36">
+        <v>31.895</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="36">
+        <v>31.864999999999998</v>
+      </c>
+      <c r="G13" s="36">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="12">
+        <v>32.786999999999999</v>
+      </c>
+      <c r="K13" s="12">
+        <v>-0.66900000000000004</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="12">
+        <v>31.645</v>
+      </c>
+      <c r="O13" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="12">
+        <v>31.785</v>
+      </c>
+      <c r="S13" s="12">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="U13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="V13" s="12">
+        <v>32.268999999999998</v>
+      </c>
+      <c r="W13" s="12">
+        <v>-0.106</v>
+      </c>
+      <c r="Y13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>33.636000000000003</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>-2.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A14" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="36">
+        <v>32.787999999999997</v>
+      </c>
+      <c r="C14" s="36">
+        <v>-0.72799999999999998</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="36">
+        <v>31.8</v>
+      </c>
+      <c r="G14" s="36">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="12">
+        <v>31.991</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0.126</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="12">
+        <v>31.798999999999999</v>
+      </c>
+      <c r="O14" s="12">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="12">
+        <v>31.959</v>
+      </c>
+      <c r="S14" s="12">
+        <v>-0.24299999999999999</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="12">
+        <v>32.180999999999997</v>
+      </c>
+      <c r="W14" s="12">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="Y14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>34.831000000000003</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>-3.2749999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="36">
+        <v>32.667999999999999</v>
+      </c>
+      <c r="C15" s="36">
+        <v>-0.60799999999999998</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="36">
+        <v>33.198999999999998</v>
+      </c>
+      <c r="G15" s="36">
+        <v>-1.3879999999999999</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="12">
+        <v>33.850999999999999</v>
+      </c>
+      <c r="K15" s="12">
+        <v>-1.734</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="12">
+        <v>31.599</v>
+      </c>
+      <c r="O15" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="12">
+        <v>31.709</v>
+      </c>
+      <c r="S15" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="12">
+        <v>31.846</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0.317</v>
+      </c>
+      <c r="Y15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>33.587000000000003</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>-2.0310000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="36">
+        <v>31.440999999999999</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="E16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="36">
+        <v>31.352</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="I16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="12">
+        <v>31.693999999999999</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="M16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="12">
+        <v>31.260999999999999</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="Q16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="12">
+        <v>31.449000000000002</v>
+      </c>
+      <c r="S16" s="12"/>
+      <c r="U16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" s="12">
+        <v>31.611000000000001</v>
+      </c>
+      <c r="W16" s="12"/>
+      <c r="Y16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>31.071000000000002</v>
+      </c>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A17" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="36">
+        <v>31.741</v>
+      </c>
+      <c r="C17" s="36">
+        <v>-0.3</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="36">
+        <v>31.175999999999998</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="12">
+        <v>31.699000000000002</v>
+      </c>
+      <c r="K17" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="13">
+        <v>30.872</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="12">
+        <v>31.495999999999999</v>
+      </c>
+      <c r="S17" s="12">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="12">
+        <v>32.895000000000003</v>
+      </c>
+      <c r="W17" s="12">
+        <v>-1.284</v>
+      </c>
+      <c r="Y17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>30.946999999999999</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="36">
+        <v>31.648</v>
+      </c>
+      <c r="C18" s="36">
+        <v>-0.20799999999999999</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="36">
+        <v>31.698</v>
+      </c>
+      <c r="G18" s="36">
+        <v>-0.34599999999999997</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="13">
+        <v>31.338999999999999</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="12">
+        <v>31.456</v>
+      </c>
+      <c r="O18" s="12">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="Q18" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="13">
+        <v>31.16</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="U18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="12">
+        <v>32.76</v>
+      </c>
+      <c r="W18" s="12">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="Y18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>31.170999999999999</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="36">
+        <v>31.509</v>
+      </c>
+      <c r="C19" s="36">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="36">
+        <v>33.058999999999997</v>
+      </c>
+      <c r="G19" s="36">
+        <v>-1.7070000000000001</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="12">
+        <v>33.158999999999999</v>
+      </c>
+      <c r="K19" s="12">
+        <v>-1.4650000000000001</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="12">
+        <v>31.273</v>
+      </c>
+      <c r="O19" s="12">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="12">
+        <v>31.561</v>
+      </c>
+      <c r="S19" s="12">
+        <v>-0.113</v>
+      </c>
+      <c r="U19" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="13">
+        <v>31.29</v>
+      </c>
+      <c r="W19" s="13">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="Y19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>31.274000000000001</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>-0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="36">
+        <v>32.069000000000003</v>
+      </c>
+      <c r="C20" s="36">
+        <v>-0.628</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="36">
+        <v>32.000999999999998</v>
+      </c>
+      <c r="G20" s="36">
+        <v>-0.64900000000000002</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="12">
+        <v>32.869</v>
+      </c>
+      <c r="K20" s="12">
+        <v>-1.175</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="12">
+        <v>31.033999999999999</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="12">
+        <v>31.434000000000001</v>
+      </c>
+      <c r="S20" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="V20" s="12">
+        <v>31.507999999999999</v>
+      </c>
+      <c r="W20" s="12">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Y20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>31.274999999999999</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A21" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="36">
+        <v>33.506999999999998</v>
+      </c>
+      <c r="C21" s="36">
+        <v>-2.0670000000000002</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="36">
+        <v>31.420999999999999</v>
+      </c>
+      <c r="G21" s="36">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="12">
+        <v>31.463999999999999</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0.23</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="12">
+        <v>31.12</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="12">
+        <v>31.486000000000001</v>
+      </c>
+      <c r="S21" s="12">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="U21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" s="12">
+        <v>32.899000000000001</v>
+      </c>
+      <c r="W21" s="12">
+        <v>-1.2889999999999999</v>
+      </c>
+      <c r="Y21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>33.704999999999998</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>-2.6339999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="12">
+        <v>31.338999999999999</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="M22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="12">
+        <v>30.872</v>
+      </c>
+      <c r="O22" s="12"/>
+      <c r="Q22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="12">
+        <v>31.16</v>
+      </c>
+      <c r="S22" s="12"/>
+      <c r="U22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22" s="12">
+        <v>31.29</v>
+      </c>
+      <c r="W22" s="12"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="12">
+        <v>31.324999999999999</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="12">
+        <v>30.721</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0.151</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="12">
+        <v>31.536999999999999</v>
+      </c>
+      <c r="S23" s="12">
+        <v>-0.377</v>
+      </c>
+      <c r="U23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="12">
+        <v>31.218</v>
+      </c>
+      <c r="W23" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="36">
+        <v>31.440999999999999</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="E24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="36">
+        <v>31.352</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="I24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="12">
+        <v>32.317999999999998</v>
+      </c>
+      <c r="K24" s="12">
+        <v>-0.97899999999999998</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="12">
+        <v>31.257000000000001</v>
+      </c>
+      <c r="O24" s="12">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="12">
+        <v>31.446000000000002</v>
+      </c>
+      <c r="S24" s="12">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="U24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="12">
+        <v>31.439</v>
+      </c>
+      <c r="W24" s="12">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="Y24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>31.071000000000002</v>
+      </c>
+      <c r="AA24" s="12"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A25" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="36">
+        <v>32.234999999999999</v>
+      </c>
+      <c r="C25" s="36">
+        <v>-0.79400000000000004</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="39">
+        <v>30.292000000000002</v>
+      </c>
+      <c r="G25" s="39">
+        <v>1.06</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="12">
+        <v>31.466999999999999</v>
+      </c>
+      <c r="K25" s="12">
+        <v>-0.128</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="12">
+        <v>30.856999999999999</v>
+      </c>
+      <c r="O25" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="12">
+        <v>31.995000000000001</v>
+      </c>
+      <c r="S25" s="12">
+        <v>-0.83499999999999996</v>
+      </c>
+      <c r="U25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="V25" s="12">
+        <v>32.517000000000003</v>
+      </c>
+      <c r="W25" s="12">
+        <v>-1.2270000000000001</v>
+      </c>
+      <c r="Y25" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>31.196000000000002</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A26" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="39">
+        <v>31.018000000000001</v>
+      </c>
+      <c r="C26" s="39">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="36">
+        <v>32.023000000000003</v>
+      </c>
+      <c r="G26" s="36">
+        <v>-0.67100000000000004</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="12">
+        <v>31.181999999999999</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.157</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="12">
+        <v>32.542999999999999</v>
+      </c>
+      <c r="O26" s="12">
+        <v>-1.671</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="12">
+        <v>31.361999999999998</v>
+      </c>
+      <c r="S26" s="12">
+        <v>-0.20200000000000001</v>
+      </c>
+      <c r="U26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="12">
+        <v>31.902000000000001</v>
+      </c>
+      <c r="W26" s="12">
+        <v>-0.61199999999999999</v>
+      </c>
+      <c r="Y26" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>30.756</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A27" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="36">
+        <v>31.308</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="36">
+        <v>30.734999999999999</v>
+      </c>
+      <c r="G27" s="36">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Y27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>30.420999999999999</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A28" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="36">
+        <v>33.414999999999999</v>
+      </c>
+      <c r="C28" s="36">
+        <v>-1.974</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="36">
+        <v>32.058999999999997</v>
+      </c>
+      <c r="G28" s="36">
+        <v>-0.70699999999999996</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" s="12"/>
+      <c r="V28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="W28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y28" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>30.312000000000001</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A29" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="36">
+        <v>33.082999999999998</v>
+      </c>
+      <c r="C29" s="36">
+        <v>-1.6419999999999999</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="36">
+        <v>32.875</v>
+      </c>
+      <c r="G29" s="36">
+        <v>-1.522</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="12">
+        <v>31.338999999999999</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="M29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="12">
+        <v>30.872</v>
+      </c>
+      <c r="O29" s="12"/>
+      <c r="Q29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R29" s="12">
+        <v>31.16</v>
+      </c>
+      <c r="S29" s="12"/>
+      <c r="U29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V29" s="12">
+        <v>31.29</v>
+      </c>
+      <c r="W29" s="12"/>
+      <c r="Y29" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>30.777000000000001</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A30" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="36">
+        <v>31.466000000000001</v>
+      </c>
+      <c r="C30" s="36">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="36">
+        <v>30.402999999999999</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="12">
+        <v>30.96</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0.379</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="12">
+        <v>31.795000000000002</v>
+      </c>
+      <c r="O30" s="12">
+        <v>-0.92300000000000004</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="12">
+        <v>31.091999999999999</v>
+      </c>
+      <c r="S30" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" s="12">
+        <v>32.027999999999999</v>
+      </c>
+      <c r="W30" s="12">
+        <v>-0.73799999999999999</v>
+      </c>
+      <c r="Y30" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z30" s="12">
+        <v>31.367000000000001</v>
+      </c>
+      <c r="AA30" s="12">
+        <v>-0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A31" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="36">
+        <v>31.36</v>
+      </c>
+      <c r="C31" s="36">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="36">
+        <v>31.6</v>
+      </c>
+      <c r="G31" s="36">
+        <v>-0.248</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="12">
+        <v>31.036999999999999</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="12">
+        <v>33.173999999999999</v>
+      </c>
+      <c r="O31" s="12">
+        <v>-2.302</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="12">
+        <v>30.584</v>
+      </c>
+      <c r="S31" s="12">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="U31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V31" s="12">
+        <v>31.475999999999999</v>
+      </c>
+      <c r="W31" s="12">
+        <v>-0.186</v>
+      </c>
+      <c r="Y31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z31" s="12">
+        <v>30.417000000000002</v>
+      </c>
+      <c r="AA31" s="12">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="36">
+        <v>31.018000000000001</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="E32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="36">
+        <v>30.292000000000002</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="I32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="12">
+        <v>31.295000000000002</v>
+      </c>
+      <c r="K32" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="12">
+        <v>32</v>
+      </c>
+      <c r="O32" s="12">
+        <v>-1.1279999999999999</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="12">
+        <v>30.991</v>
+      </c>
+      <c r="S32" s="12">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="U32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V32" s="12">
+        <v>33.472999999999999</v>
+      </c>
+      <c r="W32" s="12">
+        <v>-2.1840000000000002</v>
+      </c>
+      <c r="Y32" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z32" s="12">
+        <v>32.412999999999997</v>
+      </c>
+      <c r="AA32" s="12">
+        <v>-1.341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A33" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="36">
+        <v>31.841999999999999</v>
+      </c>
+      <c r="C33" s="36">
+        <v>-0.82399999999999995</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="36">
+        <v>30.405999999999999</v>
+      </c>
+      <c r="G33" s="36">
+        <v>-0.114</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="13">
+        <v>30.164000000000001</v>
+      </c>
+      <c r="K33" s="13">
+        <v>1.175</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="12">
+        <v>30.995999999999999</v>
+      </c>
+      <c r="O33" s="12">
+        <v>-0.124</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" s="12">
+        <v>30.634</v>
+      </c>
+      <c r="S33" s="12">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="U33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="V33" s="13">
+        <v>30.114999999999998</v>
+      </c>
+      <c r="W33" s="13">
+        <v>1.175</v>
+      </c>
+      <c r="Y33" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z33" s="12">
+        <v>30.312000000000001</v>
+      </c>
+      <c r="AA33" s="12"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A34" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="36">
+        <v>32.92</v>
+      </c>
+      <c r="C34" s="36">
+        <v>-1.903</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="36">
+        <v>31.321999999999999</v>
+      </c>
+      <c r="G34" s="36">
+        <v>-1.0289999999999999</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="12">
+        <v>30.905000000000001</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0.434</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="12">
+        <v>31.344999999999999</v>
+      </c>
+      <c r="O34" s="12">
+        <v>-0.47299999999999998</v>
+      </c>
+      <c r="Q34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="12">
+        <v>30.864000000000001</v>
+      </c>
+      <c r="S34" s="12">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="U34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="V34" s="12">
+        <v>33.680999999999997</v>
+      </c>
+      <c r="W34" s="12">
+        <v>-2.391</v>
+      </c>
+      <c r="Y34" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>32.100999999999999</v>
+      </c>
+      <c r="AA34" s="12">
+        <v>-1.7889999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A35" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="36">
+        <v>31.672999999999998</v>
+      </c>
+      <c r="C35" s="36">
+        <v>-0.65600000000000003</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="36">
+        <v>30.818999999999999</v>
+      </c>
+      <c r="G35" s="36">
+        <v>-0.52600000000000002</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="12">
+        <v>31.184000000000001</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0.155</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="12">
+        <v>32.127000000000002</v>
+      </c>
+      <c r="O35" s="12">
+        <v>-1.2549999999999999</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35" s="12">
+        <v>31.529</v>
+      </c>
+      <c r="S35" s="12">
+        <v>-0.36899999999999999</v>
+      </c>
+      <c r="U35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" s="12">
+        <v>31.963999999999999</v>
+      </c>
+      <c r="W35" s="12">
+        <v>-0.67400000000000004</v>
+      </c>
+      <c r="Y35" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="12">
+        <v>30.824000000000002</v>
+      </c>
+      <c r="AA35" s="12">
+        <v>-0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A36" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="36">
+        <v>33.216999999999999</v>
+      </c>
+      <c r="C36" s="36">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="36">
+        <v>31.462</v>
+      </c>
+      <c r="G36" s="36">
+        <v>-1.17</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="12">
+        <v>31.981000000000002</v>
+      </c>
+      <c r="K36" s="12">
+        <v>-0.64200000000000002</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="12">
+        <v>30.844999999999999</v>
+      </c>
+      <c r="O36" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q36" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" s="12">
+        <v>31.317</v>
+      </c>
+      <c r="S36" s="12">
+        <v>-0.158</v>
+      </c>
+      <c r="U36" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="V36" s="12">
+        <v>32.344000000000001</v>
+      </c>
+      <c r="W36" s="12">
+        <v>-1.054</v>
+      </c>
+      <c r="Y36" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>32.088000000000001</v>
+      </c>
+      <c r="AA36" s="12">
+        <v>-1.776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A37" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="36">
+        <v>30.969000000000001</v>
+      </c>
+      <c r="C37" s="36">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="12">
+        <v>30.843</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0.496</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R37" s="13">
+        <v>30.343</v>
+      </c>
+      <c r="S37" s="13">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="U37" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="V37" s="12">
+        <v>31.244</v>
+      </c>
+      <c r="W37" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Y37" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>30.204000000000001</v>
+      </c>
+      <c r="AA37" s="12">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="A38" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="36">
+        <v>31.012</v>
+      </c>
+      <c r="C38" s="36">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="12">
+        <v>30.164000000000001</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="Q38" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R38" s="12">
+        <v>30.343</v>
+      </c>
+      <c r="S38" s="12"/>
+      <c r="U38" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38" s="12">
+        <v>30.114999999999998</v>
+      </c>
+      <c r="W38" s="12"/>
+      <c r="Y38" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>32.808999999999997</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>-2.4969999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I39" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="12">
+        <v>30.698</v>
+      </c>
+      <c r="K39" s="12">
+        <v>-0.53400000000000003</v>
+      </c>
+      <c r="Q39" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="12">
+        <v>30.495999999999999</v>
+      </c>
+      <c r="S39" s="12">
+        <v>-0.152</v>
+      </c>
+      <c r="U39" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V39" s="12">
+        <v>31.696999999999999</v>
+      </c>
+      <c r="W39" s="12">
+        <v>-1.5820000000000001</v>
+      </c>
+      <c r="Y39" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>29.582999999999998</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I40" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="12">
+        <v>30.565000000000001</v>
+      </c>
+      <c r="K40" s="12">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="Q40" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="12">
+        <v>29.998999999999999</v>
+      </c>
+      <c r="S40" s="12">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="U40" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V40" s="12">
+        <v>30.353999999999999</v>
+      </c>
+      <c r="W40" s="12">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="Y40" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>29.582999999999998</v>
+      </c>
+      <c r="AA40" s="12"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I41" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="12">
+        <v>31.913</v>
+      </c>
+      <c r="K41" s="12">
+        <v>-1.748</v>
+      </c>
+      <c r="Q41" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="12">
+        <v>31.704999999999998</v>
+      </c>
+      <c r="S41" s="12">
+        <v>-1.3620000000000001</v>
+      </c>
+      <c r="U41" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V41" s="12">
+        <v>32.363999999999997</v>
+      </c>
+      <c r="W41" s="12">
+        <v>-2.2490000000000001</v>
+      </c>
+      <c r="Y41" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>30.175000000000001</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>-0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="12">
+        <v>32.509</v>
+      </c>
+      <c r="K42" s="12">
+        <v>-2.3450000000000002</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" s="13">
+        <v>29.859000000000002</v>
+      </c>
+      <c r="S42" s="13">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="U42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="V42" s="12">
+        <v>30.434999999999999</v>
+      </c>
+      <c r="W42" s="12">
+        <v>-0.32</v>
+      </c>
+      <c r="Y42" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>29.861000000000001</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>-0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I43" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="13">
+        <v>29.832000000000001</v>
+      </c>
+      <c r="K43" s="13">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R43" s="12">
+        <v>31.498999999999999</v>
+      </c>
+      <c r="S43" s="12">
+        <v>-1.1559999999999999</v>
+      </c>
+      <c r="U43" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="V43" s="12">
+        <v>31.716999999999999</v>
+      </c>
+      <c r="W43" s="12">
+        <v>-1.601</v>
+      </c>
+      <c r="Y43" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z43" s="12">
+        <v>50.554000000000002</v>
+      </c>
+      <c r="AA43" s="12">
+        <v>-20.971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I44" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="12">
+        <v>31.492000000000001</v>
+      </c>
+      <c r="K44" s="12">
+        <v>-1.3280000000000001</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="R44" s="12">
+        <v>31.731999999999999</v>
+      </c>
+      <c r="S44" s="12">
+        <v>-1.389</v>
+      </c>
+      <c r="U44" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="V44" s="12">
+        <v>30.285</v>
+      </c>
+      <c r="W44" s="12">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="Y44" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z44" s="13">
+        <v>29.111000000000001</v>
+      </c>
+      <c r="AA44" s="13">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I45" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="12">
+        <v>29.832000000000001</v>
+      </c>
+      <c r="K45" s="12"/>
+      <c r="Q45" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" s="12">
+        <v>30.446999999999999</v>
+      </c>
+      <c r="S45" s="12">
+        <v>-0.104</v>
+      </c>
+      <c r="Y45" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>32.802999999999997</v>
+      </c>
+      <c r="AA45" s="12">
+        <v>-3.2189999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I46" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="12">
+        <v>31.754999999999999</v>
+      </c>
+      <c r="K46" s="12">
+        <v>-1.9219999999999999</v>
+      </c>
+      <c r="Q46" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R46" s="12">
+        <v>29.859000000000002</v>
+      </c>
+      <c r="S46" s="12"/>
+      <c r="Y46" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>29.111000000000001</v>
+      </c>
+      <c r="AA46" s="12"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I47" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="12">
+        <v>29.800999999999998</v>
+      </c>
+      <c r="K47" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="Q47" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R47" s="12">
+        <v>29.989000000000001</v>
+      </c>
+      <c r="S47" s="12">
+        <v>-0.13</v>
+      </c>
+      <c r="Y47" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>29.698</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>-0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.4">
+      <c r="I48" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="12">
+        <v>29.853000000000002</v>
+      </c>
+      <c r="K48" s="12">
+        <v>-0.02</v>
+      </c>
+      <c r="Q48" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="R48" s="12">
+        <v>30.475999999999999</v>
+      </c>
+      <c r="S48" s="12">
+        <v>-0.61699999999999999</v>
+      </c>
+      <c r="Y48" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>29.824000000000002</v>
+      </c>
+      <c r="AA48" s="12">
+        <v>-0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="9:27" x14ac:dyDescent="0.4">
+      <c r="I49" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="12">
+        <v>30.312999999999999</v>
+      </c>
+      <c r="K49" s="12">
+        <v>-0.48099999999999998</v>
+      </c>
+      <c r="Q49" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="12">
+        <v>30.870999999999999</v>
+      </c>
+      <c r="S49" s="12">
+        <v>-1.012</v>
+      </c>
+      <c r="Y49" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>31.495000000000001</v>
+      </c>
+      <c r="AA49" s="12">
+        <v>-2.383</v>
+      </c>
+    </row>
+    <row r="50" spans="9:27" x14ac:dyDescent="0.4">
+      <c r="I50" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="12">
+        <v>30.437999999999999</v>
+      </c>
+      <c r="K50" s="12">
+        <v>-0.60599999999999998</v>
+      </c>
+      <c r="Q50" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="R50" s="12">
+        <v>33.198</v>
+      </c>
+      <c r="S50" s="12">
+        <v>-3.339</v>
+      </c>
+      <c r="Y50" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>32.768999999999998</v>
+      </c>
+      <c r="AA50" s="12">
+        <v>-3.6579999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="9:27" x14ac:dyDescent="0.4">
+      <c r="Q51" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="R51" s="12">
+        <v>29.87</v>
+      </c>
+      <c r="S51" s="12">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:27" x14ac:dyDescent="0.4">
+      <c r="Q52" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52" s="12">
+        <v>30.771000000000001</v>
+      </c>
+      <c r="S52" s="12">
+        <v>-0.91200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B031BE0-8B36-4397-8FB2-44DC2E0E4222}">
+  <dimension ref="A1:AQ31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="30" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="64.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+    </row>
+    <row r="2" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="42">
+        <v>1</v>
+      </c>
+      <c r="C2" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="F2" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="42">
+        <v>0.13</v>
+      </c>
+      <c r="I2" s="42">
+        <v>-0.01</v>
+      </c>
+      <c r="J2" s="42">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K2" s="42">
+        <v>-0.06</v>
+      </c>
+      <c r="L2" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="M2" s="42">
+        <v>-0.43</v>
+      </c>
+      <c r="N2" s="42">
+        <v>-0.32</v>
+      </c>
+      <c r="O2" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P2" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="Q2" s="42">
+        <v>0.21</v>
+      </c>
+      <c r="R2" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T2" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="U2" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+    </row>
+    <row r="3" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1</v>
+      </c>
+      <c r="D3" s="42">
+        <v>-0.01</v>
+      </c>
+      <c r="E3" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G3" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="H3" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="I3" s="42">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="K3" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="L3" s="42">
+        <v>0</v>
+      </c>
+      <c r="M3" s="42">
+        <v>-0.23</v>
+      </c>
+      <c r="N3" s="42">
+        <v>-0.17</v>
+      </c>
+      <c r="O3" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="P3" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="Q3" s="42">
+        <v>0.21</v>
+      </c>
+      <c r="R3" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="T3" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="U3" s="42">
+        <v>0.15</v>
+      </c>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+    </row>
+    <row r="4" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A4" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="C4" s="42">
+        <v>-0.01</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1</v>
+      </c>
+      <c r="E4" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="I4" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="J4" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="42">
+        <v>-0.09</v>
+      </c>
+      <c r="L4" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="M4" s="42">
+        <v>0.61</v>
+      </c>
+      <c r="N4" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="O4" s="42">
+        <v>-0.19</v>
+      </c>
+      <c r="P4" s="42">
+        <v>0.27</v>
+      </c>
+      <c r="Q4" s="42">
+        <v>-0.15</v>
+      </c>
+      <c r="R4" s="42">
+        <v>-0.19</v>
+      </c>
+      <c r="S4" s="42">
+        <v>-0.11</v>
+      </c>
+      <c r="T4" s="42">
+        <v>-0.46</v>
+      </c>
+      <c r="U4" s="42">
+        <v>-0.22</v>
+      </c>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+    </row>
+    <row r="5" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A5" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="C5" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="D5" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="E5" s="42">
+        <v>1</v>
+      </c>
+      <c r="F5" s="43">
+        <v>0.47</v>
+      </c>
+      <c r="G5" s="43">
+        <v>-0.38</v>
+      </c>
+      <c r="H5" s="42">
+        <v>0</v>
+      </c>
+      <c r="I5" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="J5" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="K5" s="42">
+        <v>-0.06</v>
+      </c>
+      <c r="L5" s="42">
+        <v>-0.01</v>
+      </c>
+      <c r="M5" s="43">
+        <v>-0.52</v>
+      </c>
+      <c r="N5" s="42">
+        <v>-0.39</v>
+      </c>
+      <c r="O5" s="42">
+        <v>0.19</v>
+      </c>
+      <c r="P5" s="42">
+        <v>0.09</v>
+      </c>
+      <c r="Q5" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="R5" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="T5" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="U5" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+    </row>
+    <row r="6" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A6" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="43">
+        <v>0.47</v>
+      </c>
+      <c r="F6" s="42">
+        <v>1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>-0.15</v>
+      </c>
+      <c r="H6" s="42">
+        <v>-0.2</v>
+      </c>
+      <c r="I6" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="J6" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="K6" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="L6" s="42">
+        <v>-0.01</v>
+      </c>
+      <c r="M6" s="42">
+        <v>-0.17</v>
+      </c>
+      <c r="N6" s="42">
+        <v>-0.72</v>
+      </c>
+      <c r="O6" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="P6" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>0.19</v>
+      </c>
+      <c r="R6" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="S6" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="T6" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="U6" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+    </row>
+    <row r="7" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A7" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="C7" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="43">
+        <v>-0.38</v>
+      </c>
+      <c r="F7" s="42">
+        <v>-0.15</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="J7" s="42">
+        <v>0</v>
+      </c>
+      <c r="K7" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="L7" s="42">
+        <v>-0.09</v>
+      </c>
+      <c r="M7" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="N7" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="O7" s="43">
+        <v>-0.54</v>
+      </c>
+      <c r="P7" s="42">
+        <v>0.13</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>-0.17</v>
+      </c>
+      <c r="R7" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="S7" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="42">
+        <v>-0.08</v>
+      </c>
+      <c r="U7" s="42">
+        <v>-0.2</v>
+      </c>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+    </row>
+    <row r="8" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A8" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42">
+        <v>0.13</v>
+      </c>
+      <c r="C8" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0</v>
+      </c>
+      <c r="F8" s="42">
+        <v>-0.2</v>
+      </c>
+      <c r="G8" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="42">
+        <v>1</v>
+      </c>
+      <c r="I8" s="42">
+        <v>-0.39</v>
+      </c>
+      <c r="J8" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="K8" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="L8" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="M8" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="N8" s="42">
+        <v>0.18</v>
+      </c>
+      <c r="O8" s="42">
+        <v>-0.06</v>
+      </c>
+      <c r="P8" s="42">
+        <v>-0.21</v>
+      </c>
+      <c r="Q8" s="42">
+        <v>-0.1</v>
+      </c>
+      <c r="R8" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="S8" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="42">
+        <v>-0.19</v>
+      </c>
+      <c r="U8" s="42">
+        <v>-0.19</v>
+      </c>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+    </row>
+    <row r="9" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42">
+        <v>-0.01</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0</v>
+      </c>
+      <c r="D9" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="E9" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="H9" s="42">
+        <v>-0.39</v>
+      </c>
+      <c r="I9" s="42">
+        <v>1</v>
+      </c>
+      <c r="J9" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="K9" s="42">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="L9" s="42">
+        <v>-0.11</v>
+      </c>
+      <c r="M9" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="N9" s="42">
+        <v>-0.15</v>
+      </c>
+      <c r="O9" s="42">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="P9" s="42">
+        <v>0.22</v>
+      </c>
+      <c r="Q9" s="42">
+        <v>-0.25</v>
+      </c>
+      <c r="R9" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="S9" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="T9" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="U9" s="42">
+        <v>-0.16</v>
+      </c>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+    </row>
+    <row r="10" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A10" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C10" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="I10" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="J10" s="42">
+        <v>1</v>
+      </c>
+      <c r="K10" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="L10" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="M10" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="N10" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="O10" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="P10" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="Q10" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="R10" s="42">
+        <v>-0.23</v>
+      </c>
+      <c r="S10" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T10" s="42">
+        <v>-0.1</v>
+      </c>
+      <c r="U10" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+    </row>
+    <row r="11" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A11" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="42">
+        <v>-0.06</v>
+      </c>
+      <c r="C11" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="D11" s="42">
+        <v>-0.09</v>
+      </c>
+      <c r="E11" s="42">
+        <v>-0.06</v>
+      </c>
+      <c r="F11" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="G11" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="H11" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="I11" s="42">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J11" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="K11" s="42">
+        <v>1</v>
+      </c>
+      <c r="L11" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="M11" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="N11" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="O11" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="P11" s="42">
+        <v>-0.08</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="R11" s="43">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="S11" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="T11" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="U11" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="50"/>
+      <c r="AP11" s="50"/>
+      <c r="AQ11" s="50"/>
+    </row>
+    <row r="12" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A12" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="C12" s="42">
+        <v>0</v>
+      </c>
+      <c r="D12" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="E12" s="42">
+        <v>-0.01</v>
+      </c>
+      <c r="F12" s="42">
+        <v>-0.01</v>
+      </c>
+      <c r="G12" s="42">
+        <v>-0.09</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="I12" s="42">
+        <v>-0.11</v>
+      </c>
+      <c r="J12" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="K12" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="L12" s="42">
+        <v>1</v>
+      </c>
+      <c r="M12" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="N12" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="O12" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="P12" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="42">
+        <v>-0.01</v>
+      </c>
+      <c r="S12" s="42">
+        <v>-0.6</v>
+      </c>
+      <c r="T12" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="U12" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
+      <c r="AP12" s="50"/>
+      <c r="AQ12" s="50"/>
+    </row>
+    <row r="13" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="42">
+        <v>-0.43</v>
+      </c>
+      <c r="C13" s="42">
+        <v>-0.23</v>
+      </c>
+      <c r="D13" s="42">
+        <v>0.61</v>
+      </c>
+      <c r="E13" s="43">
+        <v>-0.52</v>
+      </c>
+      <c r="F13" s="42">
+        <v>-0.17</v>
+      </c>
+      <c r="G13" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="I13" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="J13" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="K13" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="L13" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="M13" s="42">
+        <v>1</v>
+      </c>
+      <c r="N13" s="42">
+        <v>0.59</v>
+      </c>
+      <c r="O13" s="42">
+        <v>-0.4</v>
+      </c>
+      <c r="P13" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>-0.35</v>
+      </c>
+      <c r="R13" s="42">
+        <v>-0.24</v>
+      </c>
+      <c r="S13" s="42">
+        <v>-0.16</v>
+      </c>
+      <c r="T13" s="42">
+        <v>-0.4</v>
+      </c>
+      <c r="U13" s="42">
+        <v>-0.3</v>
+      </c>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+    </row>
+    <row r="14" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="42">
+        <v>-0.32</v>
+      </c>
+      <c r="C14" s="42">
+        <v>-0.17</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="42">
+        <v>-0.39</v>
+      </c>
+      <c r="F14" s="42">
+        <v>-0.72</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="H14" s="42">
+        <v>0.18</v>
+      </c>
+      <c r="I14" s="42">
+        <v>-0.15</v>
+      </c>
+      <c r="J14" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="K14" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="L14" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="M14" s="42">
+        <v>0.59</v>
+      </c>
+      <c r="N14" s="42">
+        <v>1</v>
+      </c>
+      <c r="O14" s="42">
+        <v>-0.33</v>
+      </c>
+      <c r="P14" s="42">
+        <v>-0.13</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>-0.42</v>
+      </c>
+      <c r="R14" s="42">
+        <v>-0.08</v>
+      </c>
+      <c r="S14" s="42">
+        <v>-0.15</v>
+      </c>
+      <c r="T14" s="42">
+        <v>-0.33</v>
+      </c>
+      <c r="U14" s="42">
+        <v>-0.25</v>
+      </c>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="50"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="50"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="50"/>
+      <c r="AL14" s="50"/>
+      <c r="AM14" s="50"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="50"/>
+      <c r="AP14" s="50"/>
+      <c r="AQ14" s="50"/>
+    </row>
+    <row r="15" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="D15" s="42">
+        <v>-0.19</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.19</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="G15" s="43">
+        <v>-0.54</v>
+      </c>
+      <c r="H15" s="42">
+        <v>-0.06</v>
+      </c>
+      <c r="I15" s="42">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J15" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="K15" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="L15" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="M15" s="42">
+        <v>-0.4</v>
+      </c>
+      <c r="N15" s="42">
+        <v>-0.33</v>
+      </c>
+      <c r="O15" s="42">
+        <v>1</v>
+      </c>
+      <c r="P15" s="42">
+        <v>-0.09</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="R15" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S15" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="T15" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="U15" s="42">
+        <v>0.66</v>
+      </c>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="50"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+      <c r="AH15" s="50"/>
+      <c r="AI15" s="50"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="50"/>
+      <c r="AL15" s="50"/>
+      <c r="AM15" s="50"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="50"/>
+      <c r="AQ15" s="50"/>
+    </row>
+    <row r="16" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="C16" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="D16" s="42">
+        <v>0.27</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0.09</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="G16" s="42">
+        <v>0.13</v>
+      </c>
+      <c r="H16" s="42">
+        <v>-0.21</v>
+      </c>
+      <c r="I16" s="42">
+        <v>0.22</v>
+      </c>
+      <c r="J16" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="K16" s="42">
+        <v>-0.08</v>
+      </c>
+      <c r="L16" s="42">
+        <v>-0.04</v>
+      </c>
+      <c r="M16" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="N16" s="42">
+        <v>-0.13</v>
+      </c>
+      <c r="O16" s="42">
+        <v>-0.09</v>
+      </c>
+      <c r="P16" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="R16" s="42">
+        <v>-0.24</v>
+      </c>
+      <c r="S16" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="T16" s="43">
+        <v>-0.5</v>
+      </c>
+      <c r="U16" s="42">
+        <v>-0.33</v>
+      </c>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+      <c r="AH16" s="50"/>
+      <c r="AI16" s="50"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="50"/>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+    </row>
+    <row r="17" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="42">
+        <v>0.21</v>
+      </c>
+      <c r="C17" s="42">
+        <v>0.21</v>
+      </c>
+      <c r="D17" s="42">
+        <v>-0.15</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="F17" s="42">
+        <v>0.19</v>
+      </c>
+      <c r="G17" s="42">
+        <v>-0.17</v>
+      </c>
+      <c r="H17" s="42">
+        <v>-0.1</v>
+      </c>
+      <c r="I17" s="42">
+        <v>-0.25</v>
+      </c>
+      <c r="J17" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="K17" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="42">
+        <v>-0.35</v>
+      </c>
+      <c r="N17" s="42">
+        <v>-0.42</v>
+      </c>
+      <c r="O17" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="P17" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="Q17" s="42">
+        <v>1</v>
+      </c>
+      <c r="R17" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="S17" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="T17" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="U17" s="42">
+        <v>0.67</v>
+      </c>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+    </row>
+    <row r="18" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="C18" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="D18" s="42">
+        <v>-0.19</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="F18" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="H18" s="42">
+        <v>0.17</v>
+      </c>
+      <c r="I18" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="42">
+        <v>-0.23</v>
+      </c>
+      <c r="K18" s="43">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="L18" s="42">
+        <v>-0.01</v>
+      </c>
+      <c r="M18" s="42">
+        <v>-0.24</v>
+      </c>
+      <c r="N18" s="42">
+        <v>-0.08</v>
+      </c>
+      <c r="O18" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P18" s="42">
+        <v>-0.24</v>
+      </c>
+      <c r="Q18" s="42">
+        <v>-0.05</v>
+      </c>
+      <c r="R18" s="42">
+        <v>1</v>
+      </c>
+      <c r="S18" s="42">
+        <v>0.02</v>
+      </c>
+      <c r="T18" s="42">
+        <v>0.27</v>
+      </c>
+      <c r="U18" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+    </row>
+    <row r="19" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C19" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="42">
+        <v>-0.11</v>
+      </c>
+      <c r="E19" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="F19" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="H19" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="J19" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K19" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="L19" s="42">
+        <v>-0.6</v>
+      </c>
+      <c r="M19" s="42">
+        <v>-0.16</v>
+      </c>
+      <c r="N19" s="42">
+        <v>-0.15</v>
+      </c>
+      <c r="O19" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="P19" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="Q19" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="R19" s="42">
+        <v>0.02</v>
+      </c>
+      <c r="S19" s="42">
+        <v>1</v>
+      </c>
+      <c r="T19" s="42">
+        <v>-0.11</v>
+      </c>
+      <c r="U19" s="42">
+        <v>-0.12</v>
+      </c>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+    </row>
+    <row r="20" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="C20" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="D20" s="42">
+        <v>-0.46</v>
+      </c>
+      <c r="E20" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="42">
+        <v>-0.08</v>
+      </c>
+      <c r="H20" s="42">
+        <v>-0.19</v>
+      </c>
+      <c r="I20" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="J20" s="42">
+        <v>-0.1</v>
+      </c>
+      <c r="K20" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="L20" s="42">
+        <v>-0.02</v>
+      </c>
+      <c r="M20" s="42">
+        <v>-0.4</v>
+      </c>
+      <c r="N20" s="42">
+        <v>-0.33</v>
+      </c>
+      <c r="O20" s="42">
+        <v>0.35</v>
+      </c>
+      <c r="P20" s="43">
+        <v>-0.5</v>
+      </c>
+      <c r="Q20" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="R20" s="42">
+        <v>0.27</v>
+      </c>
+      <c r="S20" s="42">
+        <v>-0.11</v>
+      </c>
+      <c r="T20" s="42">
+        <v>1</v>
+      </c>
+      <c r="U20" s="43">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+    </row>
+    <row r="21" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C21" s="42">
+        <v>0.15</v>
+      </c>
+      <c r="D21" s="42">
+        <v>-0.22</v>
+      </c>
+      <c r="E21" s="42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F21" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G21" s="42">
+        <v>-0.2</v>
+      </c>
+      <c r="H21" s="42">
+        <v>-0.19</v>
+      </c>
+      <c r="I21" s="42">
+        <v>-0.16</v>
+      </c>
+      <c r="J21" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="K21" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="L21" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="M21" s="42">
+        <v>-0.3</v>
+      </c>
+      <c r="N21" s="42">
+        <v>-0.25</v>
+      </c>
+      <c r="O21" s="42">
+        <v>0.66</v>
+      </c>
+      <c r="P21" s="42">
+        <v>-0.33</v>
+      </c>
+      <c r="Q21" s="42">
+        <v>0.67</v>
+      </c>
+      <c r="R21" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S21" s="42">
+        <v>-0.12</v>
+      </c>
+      <c r="T21" s="43">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U21" s="42">
+        <v>1</v>
+      </c>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+    </row>
+    <row r="22" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+    </row>
+    <row r="23" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+    </row>
+    <row r="24" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+    </row>
+    <row r="25" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+    </row>
+    <row r="26" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+    </row>
+    <row r="27" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+    </row>
+    <row r="28" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+    </row>
+    <row r="29" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+    </row>
+    <row r="30" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+    </row>
+    <row r="31" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y31" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="B2:U21">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>-0.8</formula>
+      <formula>-0.6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>-0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+      <formula>0.6</formula>
+      <formula>0.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -840,7 +7223,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -854,7 +7237,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -874,7 +7257,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -894,7 +7277,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,7 +7297,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -934,7 +7317,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,7 +7337,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -974,7 +7357,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -988,7 +7371,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +7391,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +7411,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +7431,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -1068,7 +7451,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +7471,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1103,7 +7486,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="18"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
         <v>4</v>
       </c>
@@ -1121,10 +7504,10 @@
         <f>$D$15-D16</f>
         <v>9.5000000000002416E-2</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,10 +7525,10 @@
         <f>$D$15-D17</f>
         <v>-4.2999999999999261E-2</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,10 +7546,10 @@
         <f t="shared" ref="F18:F19" si="5">$D$15-D18</f>
         <v>-0.23399999999999821</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,20 +7567,20 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1211,7 +7594,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1232,7 +7615,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1252,7 +7635,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +7655,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1292,7 +7675,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1312,7 +7695,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1332,7 +7715,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,7 +7735,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1372,7 +7755,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1392,7 +7775,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1406,7 +7789,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="12"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1426,7 +7809,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -1447,7 +7830,7 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="7" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +7850,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="12"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
@@ -1488,7 +7871,7 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1508,7 +7891,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="12"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
@@ -1528,7 +7911,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
@@ -1548,7 +7931,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
@@ -1568,7 +7951,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1582,7 +7965,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="13"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
@@ -1603,7 +7986,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="13"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
@@ -1624,7 +8007,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="13"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
@@ -1645,7 +8028,7 @@
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="13"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="1" t="s">
         <v>34</v>
       </c>
@@ -1666,7 +8049,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="13"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -1687,7 +8070,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="13"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
@@ -1708,7 +8091,7 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="13"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="1" t="s">
         <v>28</v>
       </c>
@@ -1729,7 +8112,7 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1743,7 +8126,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,10 +8144,10 @@
         <f>$D$48-D49</f>
         <v>6.8999999999999062E-2</v>
       </c>
-      <c r="G49" s="14"/>
+      <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="7" t="s">
         <v>30</v>
       </c>
@@ -1782,10 +8165,10 @@
         <f t="shared" ref="F50:F54" si="17">$D$48-D50</f>
         <v>-0.1039999999999992</v>
       </c>
-      <c r="G50" s="14"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="15"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
@@ -1803,10 +8186,10 @@
         <f t="shared" si="17"/>
         <v>-0.10299999999999798</v>
       </c>
-      <c r="G51" s="14"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="15"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="1" t="s">
         <v>26</v>
       </c>
@@ -1824,10 +8207,10 @@
         <f t="shared" si="17"/>
         <v>-0.17399999999999949</v>
       </c>
-      <c r="G52" s="14"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="15"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="1" t="s">
         <v>27</v>
       </c>
@@ -1845,10 +8228,10 @@
         <f t="shared" si="17"/>
         <v>4.7000000000000597E-2</v>
       </c>
-      <c r="G53" s="14"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="15"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="1" t="s">
         <v>28</v>
       </c>
@@ -1866,22 +8249,22 @@
         <f t="shared" si="17"/>
         <v>-0.16699999999999804</v>
       </c>
-      <c r="G54" s="14"/>
+      <c r="G54" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="G49:G54"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A21:A30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="G49:G54"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1999,7 +8382,7 @@
       <c r="B9" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2008,7 +8391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EF9B35-DC0B-4962-8BF2-C43C3A63E425}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
@@ -2037,7 +8420,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2051,7 +8434,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
@@ -2071,7 +8454,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
@@ -2094,7 +8477,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2114,7 +8497,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2134,7 +8517,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2154,7 +8537,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2174,7 +8557,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2188,7 +8571,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
@@ -2211,7 +8594,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
@@ -2231,7 +8614,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2251,7 +8634,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -2271,7 +8654,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2291,7 +8674,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2303,12 +8686,12 @@
       <c r="D15" s="3">
         <v>27.928000000000001</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="18"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
@@ -2326,10 +8709,10 @@
         <f>$D$15-D16</f>
         <v>0.15399999999999991</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2347,10 +8730,10 @@
         <f>$D$15-D17</f>
         <v>-1.8000000000000682E-2</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -2368,10 +8751,10 @@
         <f t="shared" ref="F18:F19" si="7">$D$15-D18</f>
         <v>-9.0000000000003411E-3</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -2389,20 +8772,20 @@
         <f t="shared" si="7"/>
         <v>0.12700000000000244</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2416,7 +8799,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -2439,7 +8822,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2459,7 +8842,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2482,7 +8865,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2502,7 +8885,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2525,7 +8908,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
@@ -2545,7 +8928,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2565,7 +8948,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2585,7 +8968,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2605,7 +8988,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2619,7 +9002,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="12"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -2639,7 +9022,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -2662,7 +9045,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="8" t="s">
         <v>35</v>
       </c>
@@ -2685,7 +9068,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="12"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="7" t="s">
         <v>33</v>
       </c>
@@ -2706,7 +9089,7 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2726,7 +9109,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="12"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
@@ -2746,7 +9129,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
@@ -2766,7 +9149,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
@@ -2786,7 +9169,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2800,7 +9183,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="13"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
@@ -2821,7 +9204,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="13"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
@@ -2841,7 +9224,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="13"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
@@ -2862,7 +9245,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="13"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="1" t="s">
         <v>34</v>
       </c>
@@ -2883,7 +9266,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="13"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -2904,7 +9287,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="13"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="7" t="s">
         <v>27</v>
       </c>
@@ -2924,7 +9307,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="13"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -2947,7 +9330,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2961,7 +9344,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
@@ -2982,7 +9365,7 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="7" t="s">
         <v>30</v>
       </c>
@@ -3003,7 +9386,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="15"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="8" t="s">
         <v>33</v>
       </c>
@@ -3026,7 +9409,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="15"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
@@ -3047,7 +9430,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="15"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
@@ -3068,7 +9451,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="15"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="7" t="s">
         <v>27</v>
       </c>
@@ -3089,7 +9472,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3103,7 +9486,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="20"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="1" t="s">
         <v>22</v>
       </c>
@@ -3123,7 +9506,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="20"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="7" t="s">
         <v>30</v>
       </c>
@@ -3143,7 +9526,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="20"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="8" t="s">
         <v>44</v>
       </c>
@@ -3166,7 +9549,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" s="20"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="1" t="s">
         <v>26</v>
       </c>
@@ -3186,7 +9569,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" s="20"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="7" t="s">
         <v>27</v>
       </c>
@@ -3206,7 +9589,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3220,7 +9603,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="21"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="1" t="s">
         <v>22</v>
       </c>
@@ -3240,7 +9623,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A63" s="21"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="7" t="s">
         <v>30</v>
       </c>
@@ -3263,7 +9646,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A64" s="21"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="1" t="s">
         <v>26</v>
       </c>
@@ -3283,7 +9666,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="21"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="7" t="s">
         <v>27</v>
       </c>
@@ -3304,19 +9687,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:A30"/>
     <mergeCell ref="G15:G19"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A55:A60"/>
     <mergeCell ref="A61:A65"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:A30"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3327,7 +9710,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3353,34 +9736,34 @@
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="12">
         <v>32.174999999999997</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="12">
         <v>35.865000000000002</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="12">
         <v>37.969000000000001</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="12">
         <v>111</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="13">
         <v>32.020000000000003</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="12">
         <v>37.231999999999999</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="12">
         <v>37.762</v>
       </c>
     </row>
@@ -3388,13 +9771,13 @@
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="12">
         <v>32.204999999999998</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="12">
         <v>38</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="12">
         <v>37.805</v>
       </c>
     </row>
@@ -3402,13 +9785,13 @@
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="12">
         <v>32.19</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="12">
         <v>37.503999999999998</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="12">
         <v>37.746000000000002</v>
       </c>
     </row>
@@ -3416,45 +9799,45 @@
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="12">
         <v>50.552</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="12">
         <v>37.768999999999998</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="12">
         <v>37.588000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="12">
         <v>111</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="12">
         <v>222</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="12">
         <v>333</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="12">
         <v>444</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="12">
         <v>555</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="12">
         <v>666</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="12">
         <v>777</v>
       </c>
     </row>
@@ -3462,25 +9845,25 @@
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="12">
         <v>32.174999999999997</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="12">
         <v>33.707999999999998</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="13">
         <v>32.020000000000003</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="13">
         <v>31.475000000000001</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="12">
         <v>33.604999999999997</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="12">
         <v>31.792000000000002</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="12">
         <v>31.916</v>
       </c>
     </row>
@@ -3488,25 +9871,25 @@
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="13">
         <v>32.020000000000003</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="13">
         <v>31.811</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="12">
         <v>33.289000000000001</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="12">
         <v>34.009</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="13">
         <v>31.710999999999999</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="13">
         <v>31.788</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="13">
         <v>31.847000000000001</v>
       </c>
     </row>
@@ -3514,25 +9897,25 @@
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="12">
         <v>32.204999999999998</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="12">
         <v>33.454000000000001</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="12">
         <v>32.337000000000003</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="12">
         <v>31.954000000000001</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="12">
         <v>32.18</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="12">
         <v>32.012</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="12">
         <v>34.378</v>
       </c>
     </row>
@@ -3540,25 +9923,25 @@
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="12">
         <v>32.19</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="12">
         <v>32.067</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="12">
         <v>32.21</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="12">
         <v>32.064</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="12">
         <v>32.042000000000002</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="12">
         <v>32.246000000000002</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="12">
         <v>32.152000000000001</v>
       </c>
     </row>
@@ -3566,31 +9949,1635 @@
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="12">
         <v>50.552</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="12">
         <v>33.238</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="12">
         <v>32.433</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="12">
         <v>32.220999999999997</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="12">
         <v>32.232999999999997</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="12">
         <v>33.896999999999998</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="12">
         <v>34.307000000000002</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82D6DD8-EDD3-42B8-8BF7-631DD585336F}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="26">
+        <v>32.174999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="39">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26">
+        <v>32.186999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="26">
+        <v>32.183999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="26">
+        <v>50.552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="28">
+        <v>32.06</v>
+      </c>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="39">
+        <v>31.440999999999999</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="28">
+        <v>31.486999999999998</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="28">
+        <v>33.103999999999999</v>
+      </c>
+      <c r="C12" s="28">
+        <v>-1.044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="28">
+        <v>31.895</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="28">
+        <v>32.787999999999997</v>
+      </c>
+      <c r="C14" s="28">
+        <v>-0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="28">
+        <v>32.667999999999999</v>
+      </c>
+      <c r="C15" s="28">
+        <v>-0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="28">
+        <v>31.440999999999999</v>
+      </c>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="28">
+        <v>31.741</v>
+      </c>
+      <c r="C17" s="28">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="28">
+        <v>31.648</v>
+      </c>
+      <c r="C18" s="28">
+        <v>-0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="28">
+        <v>31.509</v>
+      </c>
+      <c r="C19" s="28">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="28">
+        <v>32.069000000000003</v>
+      </c>
+      <c r="C20" s="28">
+        <v>-0.628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="28">
+        <v>33.506999999999998</v>
+      </c>
+      <c r="C21" s="28">
+        <v>-2.0670000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="30">
+        <v>31.440999999999999</v>
+      </c>
+      <c r="C24" s="30"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="30">
+        <v>32.234999999999999</v>
+      </c>
+      <c r="C25" s="30">
+        <v>-0.79400000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="39">
+        <v>31.018000000000001</v>
+      </c>
+      <c r="C26" s="39">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="30">
+        <v>31.308</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="30">
+        <v>33.414999999999999</v>
+      </c>
+      <c r="C28" s="30">
+        <v>-1.974</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="30">
+        <v>33.082999999999998</v>
+      </c>
+      <c r="C29" s="30">
+        <v>-1.6419999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="30">
+        <v>31.466000000000001</v>
+      </c>
+      <c r="C30" s="30">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="30">
+        <v>31.36</v>
+      </c>
+      <c r="C31" s="30">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="30">
+        <v>31.018000000000001</v>
+      </c>
+      <c r="C32" s="30"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="30">
+        <v>31.841999999999999</v>
+      </c>
+      <c r="C33" s="30">
+        <v>-0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="30">
+        <v>32.92</v>
+      </c>
+      <c r="C34" s="30">
+        <v>-1.903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="30">
+        <v>31.672999999999998</v>
+      </c>
+      <c r="C35" s="30">
+        <v>-0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="30">
+        <v>33.216999999999999</v>
+      </c>
+      <c r="C36" s="30">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="30">
+        <v>30.969000000000001</v>
+      </c>
+      <c r="C37" s="30">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="30">
+        <v>31.012</v>
+      </c>
+      <c r="C38" s="30">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2871F5-4E66-4D7E-B440-C943BD41F367}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="32">
+        <v>33.692999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="39">
+        <v>31.811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="32">
+        <v>33.546999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="32">
+        <v>32.030999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="32">
+        <v>33.219000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="34">
+        <v>31.811</v>
+      </c>
+      <c r="C9" s="34"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="39">
+        <v>31.352</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="34">
+        <v>33.014000000000003</v>
+      </c>
+      <c r="C11" s="34">
+        <v>-1.204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="34">
+        <v>32.588999999999999</v>
+      </c>
+      <c r="C12" s="34">
+        <v>-0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="34">
+        <v>31.864999999999998</v>
+      </c>
+      <c r="C13" s="34">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="34">
+        <v>31.8</v>
+      </c>
+      <c r="C14" s="34">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="34">
+        <v>33.198999999999998</v>
+      </c>
+      <c r="C15" s="34">
+        <v>-1.3879999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="34">
+        <v>31.352</v>
+      </c>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="34">
+        <v>31.175999999999998</v>
+      </c>
+      <c r="C17" s="34">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="34">
+        <v>31.698</v>
+      </c>
+      <c r="C18" s="34">
+        <v>-0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="34">
+        <v>33.058999999999997</v>
+      </c>
+      <c r="C19" s="34">
+        <v>-1.7070000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="34">
+        <v>32.000999999999998</v>
+      </c>
+      <c r="C20" s="34">
+        <v>-0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="34">
+        <v>31.420999999999999</v>
+      </c>
+      <c r="C21" s="34">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="36">
+        <v>31.352</v>
+      </c>
+      <c r="C24" s="36"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="39">
+        <v>30.292000000000002</v>
+      </c>
+      <c r="C25" s="39">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="36">
+        <v>32.023000000000003</v>
+      </c>
+      <c r="C26" s="36">
+        <v>-0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="36">
+        <v>30.734999999999999</v>
+      </c>
+      <c r="C27" s="36">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="36">
+        <v>32.058999999999997</v>
+      </c>
+      <c r="C28" s="36">
+        <v>-0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="36">
+        <v>32.875</v>
+      </c>
+      <c r="C29" s="36">
+        <v>-1.522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="36">
+        <v>30.402999999999999</v>
+      </c>
+      <c r="C30" s="36">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="36">
+        <v>31.6</v>
+      </c>
+      <c r="C31" s="36">
+        <v>-0.248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="36">
+        <v>30.292000000000002</v>
+      </c>
+      <c r="C32" s="36"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="36">
+        <v>30.405999999999999</v>
+      </c>
+      <c r="C33" s="36">
+        <v>-0.114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="36">
+        <v>31.321999999999999</v>
+      </c>
+      <c r="C34" s="36">
+        <v>-1.0289999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="36">
+        <v>30.818999999999999</v>
+      </c>
+      <c r="C35" s="36">
+        <v>-0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="36">
+        <v>31.462</v>
+      </c>
+      <c r="C36" s="36">
+        <v>-1.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6066E64E-74FD-41B9-9836-8B5737D9EDC2}">
+  <dimension ref="A1:C50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="12"/>
+      <c r="B1" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13">
+        <v>32.116999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>33.497999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>32.209000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12">
+        <v>32.292999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12">
+        <v>32.116999999999997</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
+        <v>31.817</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="13">
+        <v>31.693999999999999</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12">
+        <v>31.753</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <v>32.786999999999999</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-0.66900000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <v>31.991</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12">
+        <v>33.850999999999999</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-1.734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="12">
+        <v>31.693999999999999</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12">
+        <v>31.699000000000002</v>
+      </c>
+      <c r="C17" s="12">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13">
+        <v>31.338999999999999</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="12">
+        <v>33.158999999999999</v>
+      </c>
+      <c r="C19" s="12">
+        <v>-1.4650000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12">
+        <v>32.869</v>
+      </c>
+      <c r="C20" s="12">
+        <v>-1.175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12">
+        <v>31.463999999999999</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="12">
+        <v>31.338999999999999</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12">
+        <v>31.324999999999999</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="12">
+        <v>32.317999999999998</v>
+      </c>
+      <c r="C24" s="12">
+        <v>-0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="12">
+        <v>31.466999999999999</v>
+      </c>
+      <c r="C25" s="12">
+        <v>-0.128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12">
+        <v>31.181999999999999</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="12">
+        <v>31.338999999999999</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="12">
+        <v>30.96</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="12">
+        <v>31.036999999999999</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="12">
+        <v>31.295000000000002</v>
+      </c>
+      <c r="C32" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="13">
+        <v>30.164000000000001</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="12">
+        <v>30.905000000000001</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="12">
+        <v>31.184000000000001</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="12">
+        <v>31.981000000000002</v>
+      </c>
+      <c r="C36" s="12">
+        <v>-0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="12">
+        <v>30.843</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="12">
+        <v>30.164000000000001</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="12">
+        <v>30.698</v>
+      </c>
+      <c r="C39" s="12">
+        <v>-0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="12">
+        <v>30.565000000000001</v>
+      </c>
+      <c r="C40" s="12">
+        <v>-0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="12">
+        <v>31.913</v>
+      </c>
+      <c r="C41" s="12">
+        <v>-1.748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="12">
+        <v>32.509</v>
+      </c>
+      <c r="C42" s="12">
+        <v>-2.3450000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="13">
+        <v>29.832000000000001</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="12">
+        <v>31.492000000000001</v>
+      </c>
+      <c r="C44" s="12">
+        <v>-1.3280000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="12">
+        <v>29.832000000000001</v>
+      </c>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="12">
+        <v>31.754999999999999</v>
+      </c>
+      <c r="C46" s="12">
+        <v>-1.9219999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="12">
+        <v>29.800999999999998</v>
+      </c>
+      <c r="C47" s="12">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="12">
+        <v>29.853000000000002</v>
+      </c>
+      <c r="C48" s="12">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="12">
+        <v>30.312999999999999</v>
+      </c>
+      <c r="C49" s="12">
+        <v>-0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="12">
+        <v>30.437999999999999</v>
+      </c>
+      <c r="C50" s="12">
+        <v>-0.60599999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F19EBF-5F07-431D-A306-679787DDA0DF}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="12"/>
+      <c r="B1" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13">
+        <v>31.594999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>34.585999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>31.925999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>31.989000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12">
+        <v>32.048999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12">
+        <v>31.594999999999999</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13">
+        <v>31.260999999999999</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12">
+        <v>33.540999999999997</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-1.9450000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12">
+        <v>33.627000000000002</v>
+      </c>
+      <c r="C12" s="12">
+        <v>-2.0310000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <v>31.645</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <v>31.798999999999999</v>
+      </c>
+      <c r="C14" s="12">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12">
+        <v>31.599</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="12">
+        <v>31.260999999999999</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="13">
+        <v>30.872</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="12">
+        <v>31.456</v>
+      </c>
+      <c r="C18" s="12">
+        <v>-0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="12">
+        <v>31.273</v>
+      </c>
+      <c r="C19" s="12">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12">
+        <v>31.033999999999999</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="12">
+        <v>31.12</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="12">
+        <v>30.872</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="12">
+        <v>30.721</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="12">
+        <v>31.257000000000001</v>
+      </c>
+      <c r="C24" s="12">
+        <v>-0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="12">
+        <v>30.856999999999999</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12">
+        <v>32.542999999999999</v>
+      </c>
+      <c r="C26" s="12">
+        <v>-1.671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="12"/>
+      <c r="B28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="12">
+        <v>30.872</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="12">
+        <v>31.795000000000002</v>
+      </c>
+      <c r="C30" s="12">
+        <v>-0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="12">
+        <v>33.173999999999999</v>
+      </c>
+      <c r="C31" s="12">
+        <v>-2.302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="12">
+        <v>32</v>
+      </c>
+      <c r="C32" s="12">
+        <v>-1.1279999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="12">
+        <v>30.995999999999999</v>
+      </c>
+      <c r="C33" s="12">
+        <v>-0.124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="12">
+        <v>31.344999999999999</v>
+      </c>
+      <c r="C34" s="12">
+        <v>-0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="12">
+        <v>32.127000000000002</v>
+      </c>
+      <c r="C35" s="12">
+        <v>-1.2549999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="12">
+        <v>30.844999999999999</v>
+      </c>
+      <c r="C36" s="12">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BTH/lessvar/feature_selection/记录_BTH.xlsx
+++ b/BTH/lessvar/feature_selection/记录_BTH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\data\BTH\lessvar\feature_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2C59B0-D343-4191-BB90-27D0518C1DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48CF4AA-72ED-496A-907B-744B321DF752}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="5" activeTab="13" xr2:uid="{7C1C2EC2-2635-4D58-A33F-B64F5C382C8A}"/>
+    <workbookView minimized="1" xWindow="4335" yWindow="3308" windowWidth="13245" windowHeight="7282" tabRatio="785" firstSheet="13" activeTab="13" xr2:uid="{7C1C2EC2-2635-4D58-A33F-B64F5C382C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="选基准项-平行1" sheetId="4" r:id="rId1"/>
@@ -586,7 +586,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -877,36 +877,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -945,10 +915,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -973,6 +943,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1433,12 +1433,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="12">
@@ -1446,7 +1446,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="13">
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="12">
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="12">
@@ -1470,7 +1470,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="12">
@@ -1479,15 +1479,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="12">
@@ -1496,7 +1496,7 @@
       <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="12">
@@ -1507,7 +1507,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="12">
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="13">
@@ -1529,7 +1529,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="12">
@@ -1540,7 +1540,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="12">
@@ -1551,7 +1551,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="12">
@@ -1562,7 +1562,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="12">
@@ -1571,7 +1571,7 @@
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="12">
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="13">
@@ -1593,7 +1593,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="12">
@@ -1604,7 +1604,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="12">
@@ -1615,7 +1615,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="12">
@@ -1626,7 +1626,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="12">
@@ -1635,7 +1635,7 @@
       <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="12">
@@ -1646,7 +1646,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="12">
@@ -1657,7 +1657,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="12">
@@ -1668,7 +1668,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="12">
@@ -1680,15 +1680,15 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="12">
@@ -1697,7 +1697,7 @@
       <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="12">
@@ -1708,7 +1708,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="12">
@@ -1719,7 +1719,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="12">
@@ -1730,7 +1730,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="12">
@@ -1741,7 +1741,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="12">
@@ -1752,7 +1752,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="12">
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="12">
@@ -1774,7 +1774,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="13">
@@ -1785,7 +1785,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="12">
@@ -1794,7 +1794,7 @@
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="12">
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="12">
@@ -1816,7 +1816,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="12">
@@ -1827,7 +1827,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="13">
@@ -1841,7 +1841,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B43" s="12">
@@ -1852,7 +1852,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="12">
@@ -1863,7 +1863,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B45" s="12">
@@ -1874,7 +1874,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="12">
@@ -1883,7 +1883,7 @@
       <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="12">
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="12">
@@ -1905,7 +1905,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="12">
@@ -1916,7 +1916,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B50" s="12">
@@ -1927,7 +1927,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B51" s="12">
@@ -1938,7 +1938,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="12">
@@ -1967,12 +1967,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13">
@@ -1980,7 +1980,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="12">
@@ -1988,7 +1988,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="12">
@@ -1996,7 +1996,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="12">
@@ -2004,7 +2004,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="12">
@@ -2013,15 +2013,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="12">
@@ -2030,7 +2030,7 @@
       <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="12">
@@ -2041,7 +2041,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="12">
@@ -2052,7 +2052,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="13">
@@ -2063,7 +2063,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="12">
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="12">
@@ -2085,7 +2085,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="12">
@@ -2096,7 +2096,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="12">
@@ -2105,7 +2105,7 @@
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="12">
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="12">
@@ -2127,7 +2127,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="13">
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="12">
@@ -2149,7 +2149,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="12">
@@ -2160,7 +2160,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="12">
@@ -2169,7 +2169,7 @@
       <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="12">
@@ -2180,7 +2180,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="12">
@@ -2191,7 +2191,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="12">
@@ -2202,7 +2202,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="12">
@@ -2214,15 +2214,15 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="12">
@@ -2231,7 +2231,7 @@
       <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="12">
@@ -2242,7 +2242,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="12">
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="12">
@@ -2264,7 +2264,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="13">
@@ -2275,7 +2275,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="12">
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="12">
@@ -2297,7 +2297,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="12">
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="12">
@@ -2319,7 +2319,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="12">
@@ -2328,7 +2328,7 @@
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="12">
@@ -2339,7 +2339,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="12">
@@ -2350,7 +2350,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="12">
@@ -2361,7 +2361,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="12">
@@ -2372,7 +2372,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="12">
@@ -2383,7 +2383,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="12">
@@ -2411,12 +2411,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="12">
@@ -2424,7 +2424,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="13">
@@ -2432,7 +2432,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="12">
@@ -2440,7 +2440,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="12">
@@ -2448,7 +2448,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="12">
@@ -2457,15 +2457,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="12">
@@ -2474,7 +2474,7 @@
       <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="12">
@@ -2485,7 +2485,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="13">
@@ -2496,7 +2496,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="12">
@@ -2507,7 +2507,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="12">
@@ -2518,7 +2518,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="12">
@@ -2529,7 +2529,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="12">
@@ -2540,7 +2540,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="12">
@@ -2549,7 +2549,7 @@
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="12">
@@ -2560,7 +2560,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="12">
@@ -2571,7 +2571,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="12">
@@ -2582,7 +2582,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="12">
@@ -2593,7 +2593,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="12">
@@ -2605,15 +2605,15 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="12"/>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="12">
@@ -2622,7 +2622,7 @@
       <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="12">
@@ -2633,7 +2633,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="12">
@@ -2644,7 +2644,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="12">
@@ -2655,7 +2655,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="13">
@@ -2666,7 +2666,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="12">
@@ -2677,7 +2677,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="12">
@@ -2688,7 +2688,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="12">
@@ -2699,7 +2699,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="12">
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="12">
@@ -2719,7 +2719,7 @@
       <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="12">
@@ -2730,7 +2730,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="12">
@@ -2741,7 +2741,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="12">
@@ -2752,7 +2752,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="12">
@@ -2763,7 +2763,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="12">
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="13">
@@ -2785,7 +2785,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="12">
@@ -2794,7 +2794,7 @@
       <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="12">
@@ -2805,7 +2805,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="12">
@@ -2816,7 +2816,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="12">
@@ -2827,7 +2827,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="13">
@@ -2838,7 +2838,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="12">
@@ -2849,7 +2849,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="12">
@@ -2858,7 +2858,7 @@
       <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="12">
@@ -2869,7 +2869,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="12">
@@ -2880,7 +2880,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="12">
@@ -2891,7 +2891,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="12">
@@ -2911,80 +2911,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A8A46E-EBCC-4940-AC80-47A3273B29B1}">
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="31" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I1" s="12"/>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="12"/>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="Q1" s="12"/>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="12"/>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="14" t="s">
         <v>17</v>
       </c>
       <c r="Y1" s="12"/>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="26">
         <v>32.174999999999997</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="26">
         <v>33.692999999999998</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="13">
         <v>32.116999999999997</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="13">
         <v>31.594999999999999</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="R2" s="12">
         <v>33.344999999999999</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="13">
         <v>32.162999999999997</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="Z2" s="12">
@@ -2992,43 +2992,43 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>32.06</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="29">
         <v>31.811</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="12">
         <v>33.497999999999998</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="12">
         <v>34.585999999999999</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="R3" s="13">
         <v>31.716000000000001</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="V3" s="12">
         <v>32.368000000000002</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="13">
@@ -3036,43 +3036,43 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="26">
         <v>32.186999999999998</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="26">
         <v>33.546999999999997</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="12">
         <v>32.299999999999997</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="12">
         <v>31.925999999999998</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="R4" s="12">
         <v>32.137</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="V4" s="12">
         <v>32.533999999999999</v>
       </c>
-      <c r="Y4" s="24" t="s">
+      <c r="Y4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Z4" s="12">
@@ -3080,43 +3080,43 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="26">
         <v>32.183999999999997</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="26">
         <v>32.030999999999999</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="12">
         <v>32.209000000000003</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="12">
         <v>31.989000000000001</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="R5" s="12">
         <v>32.213999999999999</v>
       </c>
-      <c r="U5" s="24" t="s">
+      <c r="U5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="V5" s="12">
         <v>33.098999999999997</v>
       </c>
-      <c r="Y5" s="24" t="s">
+      <c r="Y5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="Z5" s="12">
@@ -3124,43 +3124,43 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="26">
         <v>50.552</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="26">
         <v>33.219000000000001</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="12">
         <v>32.292999999999999</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="12">
         <v>32.048999999999999</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="R6" s="12">
         <v>32.002000000000002</v>
       </c>
-      <c r="U6" s="24" t="s">
+      <c r="U6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="V6" s="12">
         <v>33.649000000000001</v>
       </c>
-      <c r="Y6" s="24" t="s">
+      <c r="Y6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Z6" s="12">
@@ -3168,100 +3168,100 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="27" t="s">
         <v>46</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="12"/>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="Q8" s="12"/>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="U8" s="12"/>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W8" s="24" t="s">
+      <c r="W8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="24" t="s">
+      <c r="Z8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AA8" s="24" t="s">
+      <c r="AA8" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="26">
         <v>32.06</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="E9" s="37" t="s">
+      <c r="C9" s="26"/>
+      <c r="E9" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="26">
         <v>31.811</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="I9" s="24" t="s">
+      <c r="G9" s="26"/>
+      <c r="I9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J9" s="12">
         <v>32.116999999999997</v>
       </c>
       <c r="K9" s="12"/>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="N9" s="12">
         <v>31.594999999999999</v>
       </c>
       <c r="O9" s="12"/>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="R9" s="12">
         <v>31.716000000000001</v>
       </c>
       <c r="S9" s="12"/>
-      <c r="U9" s="24" t="s">
+      <c r="U9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="V9" s="12">
         <v>32.162999999999997</v>
       </c>
       <c r="W9" s="12"/>
-      <c r="Y9" s="24" t="s">
+      <c r="Y9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="Z9" s="12">
@@ -3270,25 +3270,25 @@
       <c r="AA9" s="12"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="29">
         <v>31.440999999999999</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="29">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="29">
         <v>31.352</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="29">
         <v>0.45900000000000002</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="12">
@@ -3297,7 +3297,7 @@
       <c r="K10" s="12">
         <v>0.30099999999999999</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="13">
@@ -3306,7 +3306,7 @@
       <c r="O10" s="13">
         <v>0.33500000000000002</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="12">
@@ -3315,7 +3315,7 @@
       <c r="S10" s="12">
         <v>-0.625</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="U10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="V10" s="12">
@@ -3324,7 +3324,7 @@
       <c r="W10" s="12">
         <v>-0.20100000000000001</v>
       </c>
-      <c r="Y10" s="24" t="s">
+      <c r="Y10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="Z10" s="12">
@@ -3335,25 +3335,25 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="26">
         <v>31.486999999999998</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="26">
         <v>0.57199999999999995</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="26">
         <v>33.014000000000003</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="26">
         <v>-1.204</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="J11" s="13">
@@ -3362,7 +3362,7 @@
       <c r="K11" s="13">
         <v>0.42299999999999999</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="N11" s="12">
@@ -3371,7 +3371,7 @@
       <c r="O11" s="12">
         <v>-1.9450000000000001</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="R11" s="12">
@@ -3380,7 +3380,7 @@
       <c r="S11" s="12">
         <v>-0.13</v>
       </c>
-      <c r="U11" s="24" t="s">
+      <c r="U11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="V11" s="12">
@@ -3389,7 +3389,7 @@
       <c r="W11" s="12">
         <v>0.217</v>
       </c>
-      <c r="Y11" s="25" t="s">
+      <c r="Y11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="Z11" s="13">
@@ -3400,25 +3400,25 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="26">
         <v>33.103999999999999</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="26">
         <v>-1.044</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="26">
         <v>32.588999999999999</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="26">
         <v>-0.77800000000000002</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J12" s="12">
@@ -3427,7 +3427,7 @@
       <c r="K12" s="12">
         <v>0.36499999999999999</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="N12" s="12">
@@ -3436,7 +3436,7 @@
       <c r="O12" s="12">
         <v>-2.0310000000000001</v>
       </c>
-      <c r="Q12" s="25" t="s">
+      <c r="Q12" s="15" t="s">
         <v>7</v>
       </c>
       <c r="R12" s="13">
@@ -3445,7 +3445,7 @@
       <c r="S12" s="13">
         <v>0.26700000000000002</v>
       </c>
-      <c r="U12" s="25" t="s">
+      <c r="U12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="V12" s="13">
@@ -3454,7 +3454,7 @@
       <c r="W12" s="13">
         <v>0.55200000000000005</v>
       </c>
-      <c r="Y12" s="24" t="s">
+      <c r="Y12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="Z12" s="12">
@@ -3465,25 +3465,25 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="26">
         <v>31.895</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="26">
         <v>0.16400000000000001</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="26">
         <v>31.864999999999998</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="26">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="12">
@@ -3492,7 +3492,7 @@
       <c r="K13" s="12">
         <v>-0.66900000000000004</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N13" s="12">
@@ -3501,7 +3501,7 @@
       <c r="O13" s="12">
         <v>-0.05</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="R13" s="12">
@@ -3510,7 +3510,7 @@
       <c r="S13" s="12">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="U13" s="24" t="s">
+      <c r="U13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="V13" s="12">
@@ -3519,7 +3519,7 @@
       <c r="W13" s="12">
         <v>-0.106</v>
       </c>
-      <c r="Y13" s="24" t="s">
+      <c r="Y13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Z13" s="12">
@@ -3530,25 +3530,25 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="26">
         <v>32.787999999999997</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="26">
         <v>-0.72799999999999998</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="26">
         <v>31.8</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="26">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="12">
@@ -3557,7 +3557,7 @@
       <c r="K14" s="12">
         <v>0.126</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="N14" s="12">
@@ -3566,7 +3566,7 @@
       <c r="O14" s="12">
         <v>-0.20300000000000001</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="R14" s="12">
@@ -3575,7 +3575,7 @@
       <c r="S14" s="12">
         <v>-0.24299999999999999</v>
       </c>
-      <c r="U14" s="24" t="s">
+      <c r="U14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="V14" s="12">
@@ -3584,7 +3584,7 @@
       <c r="W14" s="12">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="Y14" s="24" t="s">
+      <c r="Y14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="Z14" s="12">
@@ -3595,25 +3595,25 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="26">
         <v>32.667999999999999</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="26">
         <v>-0.60799999999999998</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="26">
         <v>33.198999999999998</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="26">
         <v>-1.3879999999999999</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="J15" s="12">
@@ -3622,7 +3622,7 @@
       <c r="K15" s="12">
         <v>-1.734</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="N15" s="12">
@@ -3631,7 +3631,7 @@
       <c r="O15" s="12">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="R15" s="12">
@@ -3640,7 +3640,7 @@
       <c r="S15" s="12">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="U15" s="24" t="s">
+      <c r="U15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="V15" s="12">
@@ -3649,7 +3649,7 @@
       <c r="W15" s="12">
         <v>0.317</v>
       </c>
-      <c r="Y15" s="24" t="s">
+      <c r="Y15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Z15" s="12">
@@ -3660,49 +3660,49 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="26">
         <v>31.440999999999999</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="E16" s="37" t="s">
+      <c r="C16" s="26"/>
+      <c r="E16" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="26">
         <v>31.352</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="I16" s="24" t="s">
+      <c r="G16" s="26"/>
+      <c r="I16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J16" s="12">
         <v>31.693999999999999</v>
       </c>
       <c r="K16" s="12"/>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="N16" s="12">
         <v>31.260999999999999</v>
       </c>
       <c r="O16" s="12"/>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="R16" s="12">
         <v>31.449000000000002</v>
       </c>
       <c r="S16" s="12"/>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="V16" s="12">
         <v>31.611000000000001</v>
       </c>
       <c r="W16" s="12"/>
-      <c r="Y16" s="24" t="s">
+      <c r="Y16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="Z16" s="12">
@@ -3711,25 +3711,25 @@
       <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="26">
         <v>31.741</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="26">
         <v>-0.3</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="26">
         <v>31.175999999999998</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="26">
         <v>0.17599999999999999</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="12">
@@ -3738,7 +3738,7 @@
       <c r="K17" s="12">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="15" t="s">
         <v>4</v>
       </c>
       <c r="N17" s="13">
@@ -3747,7 +3747,7 @@
       <c r="O17" s="13">
         <v>0.38900000000000001</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="12">
@@ -3756,7 +3756,7 @@
       <c r="S17" s="12">
         <v>-4.7E-2</v>
       </c>
-      <c r="U17" s="24" t="s">
+      <c r="U17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="12">
@@ -3765,7 +3765,7 @@
       <c r="W17" s="12">
         <v>-1.284</v>
       </c>
-      <c r="Y17" s="24" t="s">
+      <c r="Y17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="Z17" s="12">
@@ -3776,25 +3776,25 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="26">
         <v>31.648</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="26">
         <v>-0.20799999999999999</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="26">
         <v>31.698</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="26">
         <v>-0.34599999999999997</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J18" s="13">
@@ -3803,7 +3803,7 @@
       <c r="K18" s="13">
         <v>0.35499999999999998</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="12">
@@ -3812,7 +3812,7 @@
       <c r="O18" s="12">
         <v>-0.19600000000000001</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="R18" s="13">
@@ -3821,7 +3821,7 @@
       <c r="S18" s="13">
         <v>0.28899999999999998</v>
       </c>
-      <c r="U18" s="24" t="s">
+      <c r="U18" s="14" t="s">
         <v>4</v>
       </c>
       <c r="V18" s="12">
@@ -3830,7 +3830,7 @@
       <c r="W18" s="12">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="Y18" s="24" t="s">
+      <c r="Y18" s="14" t="s">
         <v>7</v>
       </c>
       <c r="Z18" s="12">
@@ -3841,25 +3841,25 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="26">
         <v>31.509</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="26">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="26">
         <v>33.058999999999997</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="26">
         <v>-1.7070000000000001</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J19" s="12">
@@ -3868,7 +3868,7 @@
       <c r="K19" s="12">
         <v>-1.4650000000000001</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N19" s="12">
@@ -3877,7 +3877,7 @@
       <c r="O19" s="12">
         <v>-1.2E-2</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="Q19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="R19" s="12">
@@ -3886,7 +3886,7 @@
       <c r="S19" s="12">
         <v>-0.113</v>
       </c>
-      <c r="U19" s="25" t="s">
+      <c r="U19" s="15" t="s">
         <v>9</v>
       </c>
       <c r="V19" s="13">
@@ -3895,7 +3895,7 @@
       <c r="W19" s="13">
         <v>0.32100000000000001</v>
       </c>
-      <c r="Y19" s="24" t="s">
+      <c r="Y19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Z19" s="12">
@@ -3906,25 +3906,25 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="26">
         <v>32.069000000000003</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="26">
         <v>-0.628</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="26">
         <v>32.000999999999998</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="26">
         <v>-0.64900000000000002</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J20" s="12">
@@ -3933,7 +3933,7 @@
       <c r="K20" s="12">
         <v>-1.175</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="N20" s="12">
@@ -3942,7 +3942,7 @@
       <c r="O20" s="12">
         <v>0.22700000000000001</v>
       </c>
-      <c r="Q20" s="24" t="s">
+      <c r="Q20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="R20" s="12">
@@ -3951,7 +3951,7 @@
       <c r="S20" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="U20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="V20" s="12">
@@ -3960,7 +3960,7 @@
       <c r="W20" s="12">
         <v>0.10299999999999999</v>
       </c>
-      <c r="Y20" s="24" t="s">
+      <c r="Y20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="Z20" s="12">
@@ -3971,25 +3971,25 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="26">
         <v>33.506999999999998</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="26">
         <v>-2.0670000000000002</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="26">
         <v>31.420999999999999</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="26">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="12">
@@ -3998,7 +3998,7 @@
       <c r="K21" s="12">
         <v>0.23</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="N21" s="12">
@@ -4007,7 +4007,7 @@
       <c r="O21" s="12">
         <v>0.14099999999999999</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="R21" s="12">
@@ -4016,7 +4016,7 @@
       <c r="S21" s="12">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="U21" s="24" t="s">
+      <c r="U21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="V21" s="12">
@@ -4025,7 +4025,7 @@
       <c r="W21" s="12">
         <v>-1.2889999999999999</v>
       </c>
-      <c r="Y21" s="24" t="s">
+      <c r="Y21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="Z21" s="12">
@@ -4036,28 +4036,28 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J22" s="12">
         <v>31.338999999999999</v>
       </c>
       <c r="K22" s="12"/>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="N22" s="12">
         <v>30.872</v>
       </c>
       <c r="O22" s="12"/>
-      <c r="Q22" s="24" t="s">
+      <c r="Q22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="R22" s="12">
         <v>31.16</v>
       </c>
       <c r="S22" s="12"/>
-      <c r="U22" s="24" t="s">
+      <c r="U22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="V22" s="12">
@@ -4066,21 +4066,21 @@
       <c r="W22" s="12"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="12">
@@ -4089,7 +4089,7 @@
       <c r="K23" s="12">
         <v>1.4E-2</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="12">
@@ -4098,7 +4098,7 @@
       <c r="O23" s="12">
         <v>0.151</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="12">
@@ -4107,7 +4107,7 @@
       <c r="S23" s="12">
         <v>-0.377</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="U23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="12">
@@ -4117,29 +4117,29 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="24" t="s">
+      <c r="Z23" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="AA23" s="24" t="s">
+      <c r="AA23" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="26">
         <v>31.440999999999999</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="37" t="s">
+      <c r="C24" s="26"/>
+      <c r="E24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="26">
         <v>31.352</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="I24" s="24" t="s">
+      <c r="G24" s="26"/>
+      <c r="I24" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J24" s="12">
@@ -4148,7 +4148,7 @@
       <c r="K24" s="12">
         <v>-0.97899999999999998</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N24" s="12">
@@ -4157,7 +4157,7 @@
       <c r="O24" s="12">
         <v>-0.38500000000000001</v>
       </c>
-      <c r="Q24" s="24" t="s">
+      <c r="Q24" s="14" t="s">
         <v>9</v>
       </c>
       <c r="R24" s="12">
@@ -4166,7 +4166,7 @@
       <c r="S24" s="12">
         <v>-0.28599999999999998</v>
       </c>
-      <c r="U24" s="24" t="s">
+      <c r="U24" s="14" t="s">
         <v>4</v>
       </c>
       <c r="V24" s="12">
@@ -4175,7 +4175,7 @@
       <c r="W24" s="12">
         <v>-0.14899999999999999</v>
       </c>
-      <c r="Y24" s="24" t="s">
+      <c r="Y24" s="14" t="s">
         <v>47</v>
       </c>
       <c r="Z24" s="12">
@@ -4184,25 +4184,25 @@
       <c r="AA24" s="12"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="26">
         <v>32.234999999999999</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="26">
         <v>-0.79400000000000004</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="29">
         <v>30.292000000000002</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="29">
         <v>1.06</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="12">
@@ -4211,7 +4211,7 @@
       <c r="K25" s="12">
         <v>-0.128</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="N25" s="12">
@@ -4220,7 +4220,7 @@
       <c r="O25" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q25" s="24" t="s">
+      <c r="Q25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="R25" s="12">
@@ -4229,7 +4229,7 @@
       <c r="S25" s="12">
         <v>-0.83499999999999996</v>
       </c>
-      <c r="U25" s="24" t="s">
+      <c r="U25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="V25" s="12">
@@ -4238,7 +4238,7 @@
       <c r="W25" s="12">
         <v>-1.2270000000000001</v>
       </c>
-      <c r="Y25" s="24" t="s">
+      <c r="Y25" s="14" t="s">
         <v>22</v>
       </c>
       <c r="Z25" s="12">
@@ -4249,25 +4249,25 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="29">
         <v>31.018000000000001</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="29">
         <v>0.42299999999999999</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="26">
         <v>32.023000000000003</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="26">
         <v>-0.67100000000000004</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="J26" s="12">
@@ -4276,7 +4276,7 @@
       <c r="K26" s="12">
         <v>0.157</v>
       </c>
-      <c r="M26" s="24" t="s">
+      <c r="M26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="N26" s="12">
@@ -4285,7 +4285,7 @@
       <c r="O26" s="12">
         <v>-1.671</v>
       </c>
-      <c r="Q26" s="24" t="s">
+      <c r="Q26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="R26" s="12">
@@ -4294,7 +4294,7 @@
       <c r="S26" s="12">
         <v>-0.20200000000000001</v>
       </c>
-      <c r="U26" s="24" t="s">
+      <c r="U26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="V26" s="12">
@@ -4303,7 +4303,7 @@
       <c r="W26" s="12">
         <v>-0.61199999999999999</v>
       </c>
-      <c r="Y26" s="24" t="s">
+      <c r="Y26" s="14" t="s">
         <v>23</v>
       </c>
       <c r="Z26" s="12">
@@ -4314,25 +4314,25 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="26">
         <v>31.308</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="26">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="26">
         <v>30.734999999999999</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="26">
         <v>0.61699999999999999</v>
       </c>
-      <c r="Y27" s="24" t="s">
+      <c r="Y27" s="14" t="s">
         <v>24</v>
       </c>
       <c r="Z27" s="12">
@@ -4343,53 +4343,53 @@
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="26">
         <v>33.414999999999999</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="26">
         <v>-1.974</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="26">
         <v>32.058999999999997</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="26">
         <v>-0.70699999999999996</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="14" t="s">
         <v>46</v>
       </c>
       <c r="M28" s="12"/>
-      <c r="N28" s="24" t="s">
+      <c r="N28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="24" t="s">
+      <c r="O28" s="14" t="s">
         <v>46</v>
       </c>
       <c r="Q28" s="12"/>
-      <c r="R28" s="24" t="s">
+      <c r="R28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S28" s="24" t="s">
+      <c r="S28" s="14" t="s">
         <v>46</v>
       </c>
       <c r="U28" s="12"/>
-      <c r="V28" s="24" t="s">
+      <c r="V28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="W28" s="24" t="s">
+      <c r="W28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Y28" s="25" t="s">
+      <c r="Y28" s="15" t="s">
         <v>25</v>
       </c>
       <c r="Z28" s="13">
@@ -4400,53 +4400,53 @@
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="26">
         <v>33.082999999999998</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="26">
         <v>-1.6419999999999999</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="26">
         <v>32.875</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="26">
         <v>-1.522</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J29" s="12">
         <v>31.338999999999999</v>
       </c>
       <c r="K29" s="12"/>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="N29" s="12">
         <v>30.872</v>
       </c>
       <c r="O29" s="12"/>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="R29" s="12">
         <v>31.16</v>
       </c>
       <c r="S29" s="12"/>
-      <c r="U29" s="24" t="s">
+      <c r="U29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="V29" s="12">
         <v>31.29</v>
       </c>
       <c r="W29" s="12"/>
-      <c r="Y29" s="24" t="s">
+      <c r="Y29" s="14" t="s">
         <v>34</v>
       </c>
       <c r="Z29" s="12">
@@ -4457,25 +4457,25 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="26">
         <v>31.466000000000001</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="26">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="26">
         <v>30.402999999999999</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="26">
         <v>0.94899999999999995</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J30" s="12">
@@ -4484,7 +4484,7 @@
       <c r="K30" s="12">
         <v>0.379</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="14" t="s">
         <v>23</v>
       </c>
       <c r="N30" s="12">
@@ -4493,7 +4493,7 @@
       <c r="O30" s="12">
         <v>-0.92300000000000004</v>
       </c>
-      <c r="Q30" s="24" t="s">
+      <c r="Q30" s="14" t="s">
         <v>22</v>
       </c>
       <c r="R30" s="12">
@@ -4502,7 +4502,7 @@
       <c r="S30" s="12">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="U30" s="24" t="s">
+      <c r="U30" s="14" t="s">
         <v>22</v>
       </c>
       <c r="V30" s="12">
@@ -4511,7 +4511,7 @@
       <c r="W30" s="12">
         <v>-0.73799999999999999</v>
       </c>
-      <c r="Y30" s="24" t="s">
+      <c r="Y30" s="14" t="s">
         <v>48</v>
       </c>
       <c r="Z30" s="12">
@@ -4522,25 +4522,25 @@
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="26">
         <v>31.36</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="26">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="26">
         <v>31.6</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="26">
         <v>-0.248</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="12">
@@ -4549,7 +4549,7 @@
       <c r="K31" s="12">
         <v>0.30099999999999999</v>
       </c>
-      <c r="M31" s="24" t="s">
+      <c r="M31" s="14" t="s">
         <v>24</v>
       </c>
       <c r="N31" s="12">
@@ -4558,7 +4558,7 @@
       <c r="O31" s="12">
         <v>-2.302</v>
       </c>
-      <c r="Q31" s="24" t="s">
+      <c r="Q31" s="14" t="s">
         <v>23</v>
       </c>
       <c r="R31" s="12">
@@ -4567,7 +4567,7 @@
       <c r="S31" s="12">
         <v>0.57499999999999996</v>
       </c>
-      <c r="U31" s="24" t="s">
+      <c r="U31" s="14" t="s">
         <v>23</v>
       </c>
       <c r="V31" s="12">
@@ -4576,7 +4576,7 @@
       <c r="W31" s="12">
         <v>-0.186</v>
       </c>
-      <c r="Y31" s="24" t="s">
+      <c r="Y31" s="14" t="s">
         <v>27</v>
       </c>
       <c r="Z31" s="12">
@@ -4587,21 +4587,21 @@
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="26">
         <v>31.018000000000001</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="E32" s="37" t="s">
+      <c r="C32" s="26"/>
+      <c r="E32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="26">
         <v>30.292000000000002</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="I32" s="24" t="s">
+      <c r="G32" s="26"/>
+      <c r="I32" s="14" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="12">
@@ -4610,7 +4610,7 @@
       <c r="K32" s="12">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="M32" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N32" s="12">
@@ -4619,7 +4619,7 @@
       <c r="O32" s="12">
         <v>-1.1279999999999999</v>
       </c>
-      <c r="Q32" s="24" t="s">
+      <c r="Q32" s="14" t="s">
         <v>24</v>
       </c>
       <c r="R32" s="12">
@@ -4628,7 +4628,7 @@
       <c r="S32" s="12">
         <v>0.16800000000000001</v>
       </c>
-      <c r="U32" s="24" t="s">
+      <c r="U32" s="14" t="s">
         <v>24</v>
       </c>
       <c r="V32" s="12">
@@ -4637,7 +4637,7 @@
       <c r="W32" s="12">
         <v>-2.1840000000000002</v>
       </c>
-      <c r="Y32" s="24" t="s">
+      <c r="Y32" s="14" t="s">
         <v>28</v>
       </c>
       <c r="Z32" s="12">
@@ -4648,25 +4648,25 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="26">
         <v>31.841999999999999</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="26">
         <v>-0.82399999999999995</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="26">
         <v>30.405999999999999</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="26">
         <v>-0.114</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="13">
@@ -4675,7 +4675,7 @@
       <c r="K33" s="13">
         <v>1.175</v>
       </c>
-      <c r="M33" s="24" t="s">
+      <c r="M33" s="14" t="s">
         <v>34</v>
       </c>
       <c r="N33" s="12">
@@ -4684,7 +4684,7 @@
       <c r="O33" s="12">
         <v>-0.124</v>
       </c>
-      <c r="Q33" s="24" t="s">
+      <c r="Q33" s="14" t="s">
         <v>25</v>
       </c>
       <c r="R33" s="12">
@@ -4693,7 +4693,7 @@
       <c r="S33" s="12">
         <v>0.52600000000000002</v>
       </c>
-      <c r="U33" s="25" t="s">
+      <c r="U33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="V33" s="13">
@@ -4702,7 +4702,7 @@
       <c r="W33" s="13">
         <v>1.175</v>
       </c>
-      <c r="Y33" s="24" t="s">
+      <c r="Y33" s="14" t="s">
         <v>47</v>
       </c>
       <c r="Z33" s="12">
@@ -4711,25 +4711,25 @@
       <c r="AA33" s="12"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="26">
         <v>32.92</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="26">
         <v>-1.903</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="26">
         <v>31.321999999999999</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="26">
         <v>-1.0289999999999999</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="J34" s="12">
@@ -4738,7 +4738,7 @@
       <c r="K34" s="12">
         <v>0.434</v>
       </c>
-      <c r="M34" s="24" t="s">
+      <c r="M34" s="14" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="12">
@@ -4747,7 +4747,7 @@
       <c r="O34" s="12">
         <v>-0.47299999999999998</v>
       </c>
-      <c r="Q34" s="24" t="s">
+      <c r="Q34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="R34" s="12">
@@ -4756,7 +4756,7 @@
       <c r="S34" s="12">
         <v>0.29599999999999999</v>
       </c>
-      <c r="U34" s="24" t="s">
+      <c r="U34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="V34" s="12">
@@ -4765,7 +4765,7 @@
       <c r="W34" s="12">
         <v>-2.391</v>
       </c>
-      <c r="Y34" s="24" t="s">
+      <c r="Y34" s="14" t="s">
         <v>22</v>
       </c>
       <c r="Z34" s="12">
@@ -4776,25 +4776,25 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="26">
         <v>31.672999999999998</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="26">
         <v>-0.65600000000000003</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="26">
         <v>30.818999999999999</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="26">
         <v>-0.52600000000000002</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J35" s="12">
@@ -4803,7 +4803,7 @@
       <c r="K35" s="12">
         <v>0.155</v>
       </c>
-      <c r="M35" s="24" t="s">
+      <c r="M35" s="14" t="s">
         <v>27</v>
       </c>
       <c r="N35" s="12">
@@ -4812,7 +4812,7 @@
       <c r="O35" s="12">
         <v>-1.2549999999999999</v>
       </c>
-      <c r="Q35" s="24" t="s">
+      <c r="Q35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="R35" s="12">
@@ -4821,7 +4821,7 @@
       <c r="S35" s="12">
         <v>-0.36899999999999999</v>
       </c>
-      <c r="U35" s="24" t="s">
+      <c r="U35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="V35" s="12">
@@ -4830,7 +4830,7 @@
       <c r="W35" s="12">
         <v>-0.67400000000000004</v>
       </c>
-      <c r="Y35" s="24" t="s">
+      <c r="Y35" s="14" t="s">
         <v>23</v>
       </c>
       <c r="Z35" s="12">
@@ -4841,25 +4841,25 @@
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="26">
         <v>33.216999999999999</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="26">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="26">
         <v>31.462</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="26">
         <v>-1.17</v>
       </c>
-      <c r="I36" s="24" t="s">
+      <c r="I36" s="14" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="12">
@@ -4868,7 +4868,7 @@
       <c r="K36" s="12">
         <v>-0.64200000000000002</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="14" t="s">
         <v>28</v>
       </c>
       <c r="N36" s="12">
@@ -4877,7 +4877,7 @@
       <c r="O36" s="12">
         <v>2.7E-2</v>
       </c>
-      <c r="Q36" s="24" t="s">
+      <c r="Q36" s="14" t="s">
         <v>27</v>
       </c>
       <c r="R36" s="12">
@@ -4886,7 +4886,7 @@
       <c r="S36" s="12">
         <v>-0.158</v>
       </c>
-      <c r="U36" s="24" t="s">
+      <c r="U36" s="14" t="s">
         <v>27</v>
       </c>
       <c r="V36" s="12">
@@ -4895,7 +4895,7 @@
       <c r="W36" s="12">
         <v>-1.054</v>
       </c>
-      <c r="Y36" s="24" t="s">
+      <c r="Y36" s="14" t="s">
         <v>24</v>
       </c>
       <c r="Z36" s="12">
@@ -4906,16 +4906,16 @@
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="26">
         <v>30.969000000000001</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="26">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I37" s="24" t="s">
+      <c r="I37" s="14" t="s">
         <v>28</v>
       </c>
       <c r="J37" s="12">
@@ -4924,7 +4924,7 @@
       <c r="K37" s="12">
         <v>0.496</v>
       </c>
-      <c r="Q37" s="25" t="s">
+      <c r="Q37" s="15" t="s">
         <v>28</v>
       </c>
       <c r="R37" s="13">
@@ -4933,7 +4933,7 @@
       <c r="S37" s="13">
         <v>0.81599999999999995</v>
       </c>
-      <c r="U37" s="24" t="s">
+      <c r="U37" s="14" t="s">
         <v>28</v>
       </c>
       <c r="V37" s="12">
@@ -4942,7 +4942,7 @@
       <c r="W37" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="Y37" s="24" t="s">
+      <c r="Y37" s="14" t="s">
         <v>34</v>
       </c>
       <c r="Z37" s="12">
@@ -4953,37 +4953,37 @@
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="26">
         <v>31.012</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I38" s="24" t="s">
+      <c r="I38" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J38" s="12">
         <v>30.164000000000001</v>
       </c>
       <c r="K38" s="12"/>
-      <c r="Q38" s="24" t="s">
+      <c r="Q38" s="14" t="s">
         <v>47</v>
       </c>
       <c r="R38" s="12">
         <v>30.343</v>
       </c>
       <c r="S38" s="12"/>
-      <c r="U38" s="24" t="s">
+      <c r="U38" s="14" t="s">
         <v>47</v>
       </c>
       <c r="V38" s="12">
         <v>30.114999999999998</v>
       </c>
       <c r="W38" s="12"/>
-      <c r="Y38" s="24" t="s">
+      <c r="Y38" s="14" t="s">
         <v>48</v>
       </c>
       <c r="Z38" s="12">
@@ -4994,7 +4994,7 @@
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J39" s="12">
@@ -5003,7 +5003,7 @@
       <c r="K39" s="12">
         <v>-0.53400000000000003</v>
       </c>
-      <c r="Q39" s="24" t="s">
+      <c r="Q39" s="14" t="s">
         <v>22</v>
       </c>
       <c r="R39" s="12">
@@ -5012,7 +5012,7 @@
       <c r="S39" s="12">
         <v>-0.152</v>
       </c>
-      <c r="U39" s="24" t="s">
+      <c r="U39" s="14" t="s">
         <v>22</v>
       </c>
       <c r="V39" s="12">
@@ -5021,7 +5021,7 @@
       <c r="W39" s="12">
         <v>-1.5820000000000001</v>
       </c>
-      <c r="Y39" s="25" t="s">
+      <c r="Y39" s="15" t="s">
         <v>27</v>
       </c>
       <c r="Z39" s="13">
@@ -5032,7 +5032,7 @@
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I40" s="24" t="s">
+      <c r="I40" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J40" s="12">
@@ -5041,7 +5041,7 @@
       <c r="K40" s="12">
         <v>-0.40100000000000002</v>
       </c>
-      <c r="Q40" s="24" t="s">
+      <c r="Q40" s="14" t="s">
         <v>23</v>
       </c>
       <c r="R40" s="12">
@@ -5050,7 +5050,7 @@
       <c r="S40" s="12">
         <v>0.34399999999999997</v>
       </c>
-      <c r="U40" s="24" t="s">
+      <c r="U40" s="14" t="s">
         <v>23</v>
       </c>
       <c r="V40" s="12">
@@ -5059,7 +5059,7 @@
       <c r="W40" s="12">
         <v>-0.23899999999999999</v>
       </c>
-      <c r="Y40" s="24" t="s">
+      <c r="Y40" s="14" t="s">
         <v>47</v>
       </c>
       <c r="Z40" s="12">
@@ -5068,7 +5068,7 @@
       <c r="AA40" s="12"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I41" s="24" t="s">
+      <c r="I41" s="14" t="s">
         <v>24</v>
       </c>
       <c r="J41" s="12">
@@ -5077,7 +5077,7 @@
       <c r="K41" s="12">
         <v>-1.748</v>
       </c>
-      <c r="Q41" s="24" t="s">
+      <c r="Q41" s="14" t="s">
         <v>24</v>
       </c>
       <c r="R41" s="12">
@@ -5086,7 +5086,7 @@
       <c r="S41" s="12">
         <v>-1.3620000000000001</v>
       </c>
-      <c r="U41" s="24" t="s">
+      <c r="U41" s="14" t="s">
         <v>24</v>
       </c>
       <c r="V41" s="12">
@@ -5095,7 +5095,7 @@
       <c r="W41" s="12">
         <v>-2.2490000000000001</v>
       </c>
-      <c r="Y41" s="24" t="s">
+      <c r="Y41" s="14" t="s">
         <v>22</v>
       </c>
       <c r="Z41" s="12">
@@ -5106,7 +5106,7 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I42" s="24" t="s">
+      <c r="I42" s="14" t="s">
         <v>34</v>
       </c>
       <c r="J42" s="12">
@@ -5115,7 +5115,7 @@
       <c r="K42" s="12">
         <v>-2.3450000000000002</v>
       </c>
-      <c r="Q42" s="25" t="s">
+      <c r="Q42" s="15" t="s">
         <v>25</v>
       </c>
       <c r="R42" s="13">
@@ -5124,7 +5124,7 @@
       <c r="S42" s="13">
         <v>0.48399999999999999</v>
       </c>
-      <c r="U42" s="24" t="s">
+      <c r="U42" s="14" t="s">
         <v>34</v>
       </c>
       <c r="V42" s="12">
@@ -5133,7 +5133,7 @@
       <c r="W42" s="12">
         <v>-0.32</v>
       </c>
-      <c r="Y42" s="24" t="s">
+      <c r="Y42" s="14" t="s">
         <v>23</v>
       </c>
       <c r="Z42" s="12">
@@ -5144,7 +5144,7 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I43" s="25" t="s">
+      <c r="I43" s="15" t="s">
         <v>48</v>
       </c>
       <c r="J43" s="13">
@@ -5153,7 +5153,7 @@
       <c r="K43" s="13">
         <v>0.33200000000000002</v>
       </c>
-      <c r="Q43" s="24" t="s">
+      <c r="Q43" s="14" t="s">
         <v>34</v>
       </c>
       <c r="R43" s="12">
@@ -5162,7 +5162,7 @@
       <c r="S43" s="12">
         <v>-1.1559999999999999</v>
       </c>
-      <c r="U43" s="24" t="s">
+      <c r="U43" s="14" t="s">
         <v>48</v>
       </c>
       <c r="V43" s="12">
@@ -5171,7 +5171,7 @@
       <c r="W43" s="12">
         <v>-1.601</v>
       </c>
-      <c r="Y43" s="24" t="s">
+      <c r="Y43" s="14" t="s">
         <v>24</v>
       </c>
       <c r="Z43" s="12">
@@ -5182,7 +5182,7 @@
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="14" t="s">
         <v>27</v>
       </c>
       <c r="J44" s="12">
@@ -5191,7 +5191,7 @@
       <c r="K44" s="12">
         <v>-1.3280000000000001</v>
       </c>
-      <c r="Q44" s="24" t="s">
+      <c r="Q44" s="14" t="s">
         <v>48</v>
       </c>
       <c r="R44" s="12">
@@ -5200,7 +5200,7 @@
       <c r="S44" s="12">
         <v>-1.389</v>
       </c>
-      <c r="U44" s="24" t="s">
+      <c r="U44" s="14" t="s">
         <v>27</v>
       </c>
       <c r="V44" s="12">
@@ -5209,7 +5209,7 @@
       <c r="W44" s="12">
         <v>-0.16900000000000001</v>
       </c>
-      <c r="Y44" s="25" t="s">
+      <c r="Y44" s="15" t="s">
         <v>34</v>
       </c>
       <c r="Z44" s="13">
@@ -5220,14 +5220,14 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="14" t="s">
         <v>47</v>
       </c>
       <c r="J45" s="12">
         <v>29.832000000000001</v>
       </c>
       <c r="K45" s="12"/>
-      <c r="Q45" s="24" t="s">
+      <c r="Q45" s="14" t="s">
         <v>27</v>
       </c>
       <c r="R45" s="12">
@@ -5236,7 +5236,7 @@
       <c r="S45" s="12">
         <v>-0.104</v>
       </c>
-      <c r="Y45" s="24" t="s">
+      <c r="Y45" s="14" t="s">
         <v>48</v>
       </c>
       <c r="Z45" s="12">
@@ -5247,7 +5247,7 @@
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I46" s="24" t="s">
+      <c r="I46" s="14" t="s">
         <v>22</v>
       </c>
       <c r="J46" s="12">
@@ -5256,14 +5256,14 @@
       <c r="K46" s="12">
         <v>-1.9219999999999999</v>
       </c>
-      <c r="Q46" s="24" t="s">
+      <c r="Q46" s="14" t="s">
         <v>47</v>
       </c>
       <c r="R46" s="12">
         <v>29.859000000000002</v>
       </c>
       <c r="S46" s="12"/>
-      <c r="Y46" s="24" t="s">
+      <c r="Y46" s="14" t="s">
         <v>47</v>
       </c>
       <c r="Z46" s="12">
@@ -5272,7 +5272,7 @@
       <c r="AA46" s="12"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I47" s="24" t="s">
+      <c r="I47" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J47" s="12">
@@ -5281,7 +5281,7 @@
       <c r="K47" s="12">
         <v>3.1E-2</v>
       </c>
-      <c r="Q47" s="24" t="s">
+      <c r="Q47" s="14" t="s">
         <v>22</v>
       </c>
       <c r="R47" s="12">
@@ -5290,7 +5290,7 @@
       <c r="S47" s="12">
         <v>-0.13</v>
       </c>
-      <c r="Y47" s="24" t="s">
+      <c r="Y47" s="14" t="s">
         <v>22</v>
       </c>
       <c r="Z47" s="12">
@@ -5301,7 +5301,7 @@
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="I48" s="24" t="s">
+      <c r="I48" s="14" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="12">
@@ -5310,7 +5310,7 @@
       <c r="K48" s="12">
         <v>-0.02</v>
       </c>
-      <c r="Q48" s="24" t="s">
+      <c r="Q48" s="14" t="s">
         <v>23</v>
       </c>
       <c r="R48" s="12">
@@ -5319,7 +5319,7 @@
       <c r="S48" s="12">
         <v>-0.61699999999999999</v>
       </c>
-      <c r="Y48" s="24" t="s">
+      <c r="Y48" s="14" t="s">
         <v>23</v>
       </c>
       <c r="Z48" s="12">
@@ -5330,7 +5330,7 @@
       </c>
     </row>
     <row r="49" spans="9:27" x14ac:dyDescent="0.4">
-      <c r="I49" s="24" t="s">
+      <c r="I49" s="14" t="s">
         <v>34</v>
       </c>
       <c r="J49" s="12">
@@ -5339,7 +5339,7 @@
       <c r="K49" s="12">
         <v>-0.48099999999999998</v>
       </c>
-      <c r="Q49" s="24" t="s">
+      <c r="Q49" s="14" t="s">
         <v>24</v>
       </c>
       <c r="R49" s="12">
@@ -5348,7 +5348,7 @@
       <c r="S49" s="12">
         <v>-1.012</v>
       </c>
-      <c r="Y49" s="24" t="s">
+      <c r="Y49" s="14" t="s">
         <v>24</v>
       </c>
       <c r="Z49" s="12">
@@ -5359,7 +5359,7 @@
       </c>
     </row>
     <row r="50" spans="9:27" x14ac:dyDescent="0.4">
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="14" t="s">
         <v>27</v>
       </c>
       <c r="J50" s="12">
@@ -5368,7 +5368,7 @@
       <c r="K50" s="12">
         <v>-0.60599999999999998</v>
       </c>
-      <c r="Q50" s="24" t="s">
+      <c r="Q50" s="14" t="s">
         <v>34</v>
       </c>
       <c r="R50" s="12">
@@ -5377,7 +5377,7 @@
       <c r="S50" s="12">
         <v>-3.339</v>
       </c>
-      <c r="Y50" s="24" t="s">
+      <c r="Y50" s="14" t="s">
         <v>48</v>
       </c>
       <c r="Z50" s="12">
@@ -5388,7 +5388,7 @@
       </c>
     </row>
     <row r="51" spans="9:27" x14ac:dyDescent="0.4">
-      <c r="Q51" s="24" t="s">
+      <c r="Q51" s="14" t="s">
         <v>48</v>
       </c>
       <c r="R51" s="12">
@@ -5399,7 +5399,7 @@
       </c>
     </row>
     <row r="52" spans="9:27" x14ac:dyDescent="0.4">
-      <c r="Q52" s="24" t="s">
+      <c r="Q52" s="14" t="s">
         <v>27</v>
       </c>
       <c r="R52" s="12">
@@ -5412,6 +5412,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5419,1754 +5420,1754 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B031BE0-8B36-4397-8FB2-44DC2E0E4222}">
   <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="64.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="49" t="s">
+      <c r="T1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
     </row>
     <row r="2" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="32">
         <v>1</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="32">
         <v>0.6</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="32">
         <v>-0.04</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="32">
         <v>0.45</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="32">
         <v>0.3</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="32">
         <v>0.01</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="32">
         <v>0.13</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="32">
         <v>-0.01</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="32">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="32">
         <v>-0.06</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="32">
         <v>-0.03</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="32">
         <v>-0.43</v>
       </c>
-      <c r="N2" s="42">
+      <c r="N2" s="32">
         <v>-0.32</v>
       </c>
-      <c r="O2" s="42">
+      <c r="O2" s="32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P2" s="42">
+      <c r="P2" s="32">
         <v>-0.04</v>
       </c>
-      <c r="Q2" s="42">
+      <c r="Q2" s="32">
         <v>0.21</v>
       </c>
-      <c r="R2" s="42">
+      <c r="R2" s="32">
         <v>0.12</v>
       </c>
-      <c r="S2" s="42">
+      <c r="S2" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T2" s="42">
+      <c r="T2" s="32">
         <v>0.12</v>
       </c>
-      <c r="U2" s="42">
+      <c r="U2" s="32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="40" t="s">
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40">
         <v>1</v>
       </c>
-      <c r="AJ2" s="50" t="s">
+      <c r="AJ2" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+    </row>
+    <row r="3" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-    </row>
-    <row r="3" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A3" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="42">
+      <c r="B3" s="32">
         <v>0.6</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="32">
         <v>1</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="32">
         <v>-0.01</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="32">
         <v>0.26</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="32">
         <v>0.04</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="32">
         <v>0.04</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="32">
         <v>0</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="32">
         <v>-0.03</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="32">
         <v>-0.03</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="32">
         <v>0</v>
       </c>
-      <c r="M3" s="42">
+      <c r="M3" s="32">
         <v>-0.23</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="32">
         <v>-0.17</v>
       </c>
-      <c r="O3" s="42">
+      <c r="O3" s="32">
         <v>0.11</v>
       </c>
-      <c r="P3" s="42">
+      <c r="P3" s="32">
         <v>0.04</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="32">
         <v>0.21</v>
       </c>
-      <c r="R3" s="42">
+      <c r="R3" s="32">
         <v>0.04</v>
       </c>
-      <c r="S3" s="42">
+      <c r="S3" s="32">
         <v>0.05</v>
       </c>
-      <c r="T3" s="42">
+      <c r="T3" s="32">
         <v>0.06</v>
       </c>
-      <c r="U3" s="42">
+      <c r="U3" s="32">
         <v>0.15</v>
       </c>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="40" t="s">
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50">
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40">
         <v>2</v>
       </c>
-      <c r="AJ3" s="50" t="s">
+      <c r="AJ3" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="40"/>
+      <c r="AO3" s="40"/>
+      <c r="AP3" s="40"/>
+      <c r="AQ3" s="40"/>
     </row>
     <row r="4" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="32">
         <v>-0.04</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="32">
         <v>-0.01</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="32">
         <v>1</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="32">
         <v>-0.05</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="32">
         <v>0.12</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="32">
         <v>0.06</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="32">
         <v>0.03</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="32">
         <v>-0.05</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="32">
         <v>0.05</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="32">
         <v>-0.09</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="32">
         <v>-0.03</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="32">
         <v>0.61</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="32">
         <v>0.4</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="32">
         <v>-0.19</v>
       </c>
-      <c r="P4" s="42">
+      <c r="P4" s="32">
         <v>0.27</v>
       </c>
-      <c r="Q4" s="42">
+      <c r="Q4" s="32">
         <v>-0.15</v>
       </c>
-      <c r="R4" s="42">
+      <c r="R4" s="32">
         <v>-0.19</v>
       </c>
-      <c r="S4" s="42">
+      <c r="S4" s="32">
         <v>-0.11</v>
       </c>
-      <c r="T4" s="42">
+      <c r="T4" s="32">
         <v>-0.46</v>
       </c>
-      <c r="U4" s="42">
+      <c r="U4" s="32">
         <v>-0.22</v>
       </c>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="40" t="s">
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50">
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40">
         <v>3</v>
       </c>
-      <c r="AJ4" s="50" t="s">
+      <c r="AJ4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
     </row>
     <row r="5" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="32">
         <v>0.45</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="32">
         <v>0.26</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="32">
         <v>-0.05</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="32">
         <v>1</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="33">
         <v>0.47</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="33">
         <v>-0.38</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="32">
         <v>0</v>
       </c>
-      <c r="I5" s="42">
+      <c r="I5" s="32">
         <v>-0.03</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="32">
         <v>-0.02</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="32">
         <v>-0.06</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="32">
         <v>-0.01</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="33">
         <v>-0.52</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="32">
         <v>-0.39</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="32">
         <v>0.19</v>
       </c>
-      <c r="P5" s="42">
+      <c r="P5" s="32">
         <v>0.09</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="Q5" s="32">
         <v>0.26</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="32">
         <v>0.04</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="32">
         <v>0.11</v>
       </c>
-      <c r="T5" s="42">
+      <c r="T5" s="32">
         <v>0.04</v>
       </c>
-      <c r="U5" s="42">
+      <c r="U5" s="32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="40" t="s">
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50">
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40">
         <v>4</v>
       </c>
-      <c r="AJ5" s="50" t="s">
+      <c r="AJ5" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40"/>
     </row>
     <row r="6" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="32">
         <v>0.3</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="32">
         <v>0.12</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="33">
         <v>0.47</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="32">
         <v>1</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="32">
         <v>-0.15</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="32">
         <v>-0.2</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="32">
         <v>0.11</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="32">
         <v>0.01</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="32">
         <v>-0.02</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="32">
         <v>-0.01</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="32">
         <v>-0.17</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="32">
         <v>-0.72</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="32">
         <v>0.08</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="32">
         <v>0.17</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="32">
         <v>0.19</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="32">
         <v>-0.05</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="32">
         <v>0.06</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="32">
         <v>0.05</v>
       </c>
-      <c r="U6" s="42">
+      <c r="U6" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="40" t="s">
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50">
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40">
         <v>5</v>
       </c>
-      <c r="AJ6" s="50" t="s">
+      <c r="AJ6" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="AK6" s="50"/>
-      <c r="AL6" s="50"/>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
     </row>
     <row r="7" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="32">
         <v>0.01</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="32">
         <v>0.04</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="32">
         <v>0.06</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="33">
         <v>-0.38</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="32">
         <v>-0.15</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="32">
         <v>1</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="32">
         <v>0.05</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="32">
         <v>0.06</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="32">
         <v>0</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="32">
         <v>-0.02</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="32">
         <v>-0.09</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="32">
         <v>0.04</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="32">
         <v>0.06</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="33">
         <v>-0.54</v>
       </c>
-      <c r="P7" s="42">
+      <c r="P7" s="32">
         <v>0.13</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="32">
         <v>-0.17</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="32">
         <v>0.04</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="32">
         <v>0.03</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="32">
         <v>-0.08</v>
       </c>
-      <c r="U7" s="42">
+      <c r="U7" s="32">
         <v>-0.2</v>
       </c>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50">
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40">
         <v>6</v>
       </c>
-      <c r="AJ7" s="50" t="s">
+      <c r="AJ7" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="40"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
     </row>
     <row r="8" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="32">
         <v>0.13</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="32">
         <v>0.04</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="32">
         <v>0.03</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="32">
         <v>0</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="32">
         <v>-0.2</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="32">
         <v>0.05</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="32">
         <v>1</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="32">
         <v>-0.39</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="32">
         <v>-0.04</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="32">
         <v>-0.05</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="32">
         <v>0.12</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="32">
         <v>-0.04</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="32">
         <v>0.18</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="32">
         <v>-0.06</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="32">
         <v>-0.21</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="32">
         <v>-0.1</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="32">
         <v>0.17</v>
       </c>
-      <c r="S8" s="42">
+      <c r="S8" s="32">
         <v>0.01</v>
       </c>
-      <c r="T8" s="42">
+      <c r="T8" s="32">
         <v>-0.19</v>
       </c>
-      <c r="U8" s="42">
+      <c r="U8" s="32">
         <v>-0.19</v>
       </c>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="40" t="s">
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
     </row>
     <row r="9" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="32">
         <v>-0.01</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="32">
         <v>0</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="32">
         <v>-0.05</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="32">
         <v>-0.03</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="32">
         <v>0.11</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="32">
         <v>0.06</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="32">
         <v>-0.39</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="32">
         <v>1</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="32">
         <v>-0.02</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="32">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="L9" s="42">
+      <c r="L9" s="32">
         <v>-0.11</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="32">
         <v>-0.02</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="32">
         <v>-0.15</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="32">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="32">
         <v>0.22</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="32">
         <v>-0.25</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="32">
         <v>0.2</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="32">
         <v>0.08</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="32">
         <v>0.08</v>
       </c>
-      <c r="U9" s="42">
+      <c r="U9" s="32">
         <v>-0.16</v>
       </c>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="40" t="s">
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="40"/>
+      <c r="AP9" s="40"/>
+      <c r="AQ9" s="40"/>
     </row>
     <row r="10" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="32">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="32">
         <v>-0.03</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="32">
         <v>0.05</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="32">
         <v>-0.02</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="32">
         <v>0.01</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="32">
         <v>0</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="32">
         <v>-0.04</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="32">
         <v>-0.02</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="32">
         <v>1</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="32">
         <v>-0.03</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="32">
         <v>-0.03</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="32">
         <v>0.11</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="32">
         <v>0.05</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="32">
         <v>-0.02</v>
       </c>
-      <c r="P10" s="42">
+      <c r="P10" s="32">
         <v>0.06</v>
       </c>
-      <c r="Q10" s="42">
+      <c r="Q10" s="32">
         <v>0.03</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="32">
         <v>-0.23</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="32">
         <v>-0.1</v>
       </c>
-      <c r="U10" s="42">
+      <c r="U10" s="32">
         <v>0.03</v>
       </c>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="40" t="s">
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="40"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="40"/>
+      <c r="AQ10" s="40"/>
     </row>
     <row r="11" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="32">
         <v>-0.06</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="32">
         <v>-0.03</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="32">
         <v>-0.09</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="32">
         <v>-0.06</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="32">
         <v>-0.02</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="32">
         <v>-0.02</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="32">
         <v>-0.05</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="32">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="32">
         <v>-0.03</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="32">
         <v>1</v>
       </c>
-      <c r="L11" s="42">
+      <c r="L11" s="32">
         <v>-0.02</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="32">
         <v>-0.02</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="32">
         <v>-0.05</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="32">
         <v>0.03</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="32">
         <v>-0.08</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="32">
         <v>0.01</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="33">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="S11" s="42">
+      <c r="S11" s="32">
         <v>-0.03</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="32">
         <v>0.08</v>
       </c>
-      <c r="U11" s="42">
+      <c r="U11" s="32">
         <v>0.01</v>
       </c>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="40" t="s">
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="40"/>
+      <c r="AL11" s="40"/>
+      <c r="AM11" s="40"/>
+      <c r="AN11" s="40"/>
+      <c r="AO11" s="40"/>
+      <c r="AP11" s="40"/>
+      <c r="AQ11" s="40"/>
     </row>
     <row r="12" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="32">
         <v>-0.03</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="32">
         <v>0</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="32">
         <v>-0.03</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="32">
         <v>-0.01</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="32">
         <v>-0.01</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="32">
         <v>-0.09</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="32">
         <v>0.12</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="32">
         <v>-0.11</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="32">
         <v>-0.03</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="32">
         <v>-0.02</v>
       </c>
-      <c r="L12" s="42">
+      <c r="L12" s="32">
         <v>1</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="32">
         <v>-0.04</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="32">
         <v>-0.03</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="32">
         <v>0.11</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="32">
         <v>-0.04</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="32">
         <v>0.1</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="32">
         <v>-0.01</v>
       </c>
-      <c r="S12" s="42">
+      <c r="S12" s="32">
         <v>-0.6</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="32">
         <v>-0.02</v>
       </c>
-      <c r="U12" s="42">
+      <c r="U12" s="32">
         <v>0.08</v>
       </c>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="40" t="s">
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="40"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="40"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
+      <c r="AK12" s="40"/>
+      <c r="AL12" s="40"/>
+      <c r="AM12" s="40"/>
+      <c r="AN12" s="40"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
     </row>
     <row r="13" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="32">
         <v>-0.43</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="32">
         <v>-0.23</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="32">
         <v>0.61</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="33">
         <v>-0.52</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="32">
         <v>-0.17</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="32">
         <v>0.04</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="32">
         <v>-0.04</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="32">
         <v>-0.02</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="32">
         <v>0.11</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="32">
         <v>-0.02</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="32">
         <v>-0.04</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="32">
         <v>1</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="32">
         <v>0.59</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="32">
         <v>-0.4</v>
       </c>
-      <c r="P13" s="42">
+      <c r="P13" s="32">
         <v>0.03</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="32">
         <v>-0.35</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="32">
         <v>-0.24</v>
       </c>
-      <c r="S13" s="42">
+      <c r="S13" s="32">
         <v>-0.16</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T13" s="32">
         <v>-0.4</v>
       </c>
-      <c r="U13" s="42">
+      <c r="U13" s="32">
         <v>-0.3</v>
       </c>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="40"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
+      <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
+      <c r="AM13" s="40"/>
+      <c r="AN13" s="40"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
     </row>
     <row r="14" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="32">
         <v>-0.32</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="32">
         <v>-0.17</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="32">
         <v>0.4</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="32">
         <v>-0.39</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="32">
         <v>-0.72</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="32">
         <v>0.06</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="32">
         <v>0.18</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="32">
         <v>-0.15</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="32">
         <v>0.05</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="32">
         <v>-0.05</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="32">
         <v>-0.03</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="32">
         <v>0.59</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="32">
         <v>1</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="32">
         <v>-0.33</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="32">
         <v>-0.13</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="32">
         <v>-0.42</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="32">
         <v>-0.08</v>
       </c>
-      <c r="S14" s="42">
+      <c r="S14" s="32">
         <v>-0.15</v>
       </c>
-      <c r="T14" s="42">
+      <c r="T14" s="32">
         <v>-0.33</v>
       </c>
-      <c r="U14" s="42">
+      <c r="U14" s="32">
         <v>-0.25</v>
       </c>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="50"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="50"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="40"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
     </row>
     <row r="15" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="32">
         <v>0.11</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="32">
         <v>-0.19</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="32">
         <v>0.19</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="32">
         <v>0.08</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="33">
         <v>-0.54</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="32">
         <v>-0.06</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="32">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="32">
         <v>-0.02</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="32">
         <v>0.03</v>
       </c>
-      <c r="L15" s="42">
+      <c r="L15" s="32">
         <v>0.11</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="32">
         <v>-0.4</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="32">
         <v>-0.33</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="32">
         <v>1</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="32">
         <v>-0.09</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="32">
         <v>0.7</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S15" s="42">
+      <c r="S15" s="32">
         <v>0.03</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="32">
         <v>0.35</v>
       </c>
-      <c r="U15" s="42">
+      <c r="U15" s="32">
         <v>0.66</v>
       </c>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="50"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
+      <c r="Z15" s="40"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40"/>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
+      <c r="AM15" s="40"/>
+      <c r="AN15" s="40"/>
+      <c r="AO15" s="40"/>
+      <c r="AP15" s="40"/>
+      <c r="AQ15" s="40"/>
     </row>
     <row r="16" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="32">
         <v>-0.04</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="32">
         <v>0.04</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="32">
         <v>0.27</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="32">
         <v>0.09</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="32">
         <v>0.17</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="32">
         <v>0.13</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="32">
         <v>-0.21</v>
       </c>
-      <c r="I16" s="42">
+      <c r="I16" s="32">
         <v>0.22</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="32">
         <v>0.06</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="32">
         <v>-0.08</v>
       </c>
-      <c r="L16" s="42">
+      <c r="L16" s="32">
         <v>-0.04</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="32">
         <v>0.03</v>
       </c>
-      <c r="N16" s="42">
+      <c r="N16" s="32">
         <v>-0.13</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="32">
         <v>-0.09</v>
       </c>
-      <c r="P16" s="42">
+      <c r="P16" s="32">
         <v>1</v>
       </c>
-      <c r="Q16" s="42">
+      <c r="Q16" s="32">
         <v>0.12</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="32">
         <v>-0.24</v>
       </c>
-      <c r="S16" s="42">
+      <c r="S16" s="32">
         <v>0.3</v>
       </c>
-      <c r="T16" s="43">
+      <c r="T16" s="33">
         <v>-0.5</v>
       </c>
-      <c r="U16" s="42">
+      <c r="U16" s="32">
         <v>-0.33</v>
       </c>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="50"/>
-      <c r="AF16" s="50"/>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="50"/>
-      <c r="AI16" s="50"/>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="50"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
+      <c r="AO16" s="40"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
     </row>
     <row r="17" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="32">
         <v>0.21</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="32">
         <v>0.21</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="32">
         <v>-0.15</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="32">
         <v>0.26</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="32">
         <v>0.19</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="32">
         <v>-0.17</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="32">
         <v>-0.1</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="32">
         <v>-0.25</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="32">
         <v>0.03</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="32">
         <v>0.01</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="32">
         <v>0.1</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="32">
         <v>-0.35</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="32">
         <v>-0.42</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="32">
         <v>0.7</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="32">
         <v>0.12</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="32">
         <v>1</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="32">
         <v>-0.05</v>
       </c>
-      <c r="S17" s="42">
+      <c r="S17" s="32">
         <v>0.11</v>
       </c>
-      <c r="T17" s="42">
+      <c r="T17" s="32">
         <v>0.26</v>
       </c>
-      <c r="U17" s="42">
+      <c r="U17" s="32">
         <v>0.67</v>
       </c>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
     </row>
     <row r="18" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="32">
         <v>0.12</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="32">
         <v>0.04</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="32">
         <v>-0.19</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="32">
         <v>0.04</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="32">
         <v>-0.05</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="32">
         <v>0.04</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="32">
         <v>0.17</v>
       </c>
-      <c r="I18" s="42">
+      <c r="I18" s="32">
         <v>0.2</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="32">
         <v>-0.23</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="33">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="32">
         <v>-0.01</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="32">
         <v>-0.24</v>
       </c>
-      <c r="N18" s="42">
+      <c r="N18" s="32">
         <v>-0.08</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="32">
         <v>-0.24</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="32">
         <v>-0.05</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="32">
         <v>1</v>
       </c>
-      <c r="S18" s="42">
+      <c r="S18" s="32">
         <v>0.02</v>
       </c>
-      <c r="T18" s="42">
+      <c r="T18" s="32">
         <v>0.27</v>
       </c>
-      <c r="U18" s="42">
+      <c r="U18" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
     </row>
     <row r="19" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="32">
         <v>0.05</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="32">
         <v>-0.11</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="32">
         <v>0.11</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="32">
         <v>0.06</v>
       </c>
-      <c r="G19" s="42">
+      <c r="G19" s="32">
         <v>0.03</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="32">
         <v>0.01</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="32">
         <v>0.08</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="32">
         <v>-0.03</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="32">
         <v>-0.6</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="32">
         <v>-0.16</v>
       </c>
-      <c r="N19" s="42">
+      <c r="N19" s="32">
         <v>-0.15</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="32">
         <v>0.03</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P19" s="32">
         <v>0.3</v>
       </c>
-      <c r="Q19" s="42">
+      <c r="Q19" s="32">
         <v>0.11</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="32">
         <v>0.02</v>
       </c>
-      <c r="S19" s="42">
+      <c r="S19" s="32">
         <v>1</v>
       </c>
-      <c r="T19" s="42">
+      <c r="T19" s="32">
         <v>-0.11</v>
       </c>
-      <c r="U19" s="42">
+      <c r="U19" s="32">
         <v>-0.12</v>
       </c>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
     </row>
     <row r="20" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="32">
         <v>0.12</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="32">
         <v>0.06</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="32">
         <v>-0.46</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="32">
         <v>0.04</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="32">
         <v>0.05</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="32">
         <v>-0.08</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="32">
         <v>-0.19</v>
       </c>
-      <c r="I20" s="42">
+      <c r="I20" s="32">
         <v>0.08</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="32">
         <v>-0.1</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="32">
         <v>0.08</v>
       </c>
-      <c r="L20" s="42">
+      <c r="L20" s="32">
         <v>-0.02</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="32">
         <v>-0.4</v>
       </c>
-      <c r="N20" s="42">
+      <c r="N20" s="32">
         <v>-0.33</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="32">
         <v>0.35</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="33">
         <v>-0.5</v>
       </c>
-      <c r="Q20" s="42">
+      <c r="Q20" s="32">
         <v>0.26</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="32">
         <v>0.27</v>
       </c>
-      <c r="S20" s="42">
+      <c r="S20" s="32">
         <v>-0.11</v>
       </c>
-      <c r="T20" s="42">
+      <c r="T20" s="32">
         <v>1</v>
       </c>
-      <c r="U20" s="43">
+      <c r="U20" s="33">
         <v>0.55000000000000004</v>
       </c>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
     </row>
     <row r="21" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="32">
         <v>0.15</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="32">
         <v>-0.22</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="32">
         <v>-0.2</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="32">
         <v>-0.19</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="32">
         <v>-0.16</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="32">
         <v>0.03</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="32">
         <v>0.01</v>
       </c>
-      <c r="L21" s="42">
+      <c r="L21" s="32">
         <v>0.08</v>
       </c>
-      <c r="M21" s="42">
+      <c r="M21" s="32">
         <v>-0.3</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="32">
         <v>-0.25</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="32">
         <v>0.66</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="32">
         <v>-0.33</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="32">
         <v>0.67</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S21" s="42">
+      <c r="S21" s="32">
         <v>-0.12</v>
       </c>
-      <c r="T21" s="43">
+      <c r="T21" s="33">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U21" s="42">
+      <c r="U21" s="32">
         <v>1</v>
       </c>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
     </row>
     <row r="22" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
     </row>
     <row r="23" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
     </row>
     <row r="24" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
     </row>
     <row r="25" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
     </row>
     <row r="26" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
     </row>
     <row r="27" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
     </row>
     <row r="28" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
     </row>
     <row r="29" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
     </row>
     <row r="30" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
     </row>
     <row r="31" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Y31" s="41"/>
+      <c r="Y31" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7187,6 +7188,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7194,7 +7196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13920F2-835C-4F30-9584-8C014E5AE160}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -7223,7 +7225,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -7237,7 +7239,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
@@ -7257,7 +7259,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -7277,7 +7279,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -7297,7 +7299,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -7317,7 +7319,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7337,7 +7339,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -7357,7 +7359,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7371,7 +7373,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
@@ -7391,7 +7393,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -7411,7 +7413,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -7431,7 +7433,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -7451,7 +7453,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -7471,7 +7473,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -7486,7 +7488,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="7" t="s">
         <v>4</v>
       </c>
@@ -7504,10 +7506,10 @@
         <f>$D$15-D16</f>
         <v>9.5000000000002416E-2</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -7525,10 +7527,10 @@
         <f>$D$15-D17</f>
         <v>-4.2999999999999261E-2</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -7546,10 +7548,10 @@
         <f t="shared" ref="F18:F19" si="5">$D$15-D18</f>
         <v>-0.23399999999999821</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
@@ -7567,20 +7569,20 @@
         <f t="shared" si="5"/>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -7594,7 +7596,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -7615,7 +7617,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -7635,7 +7637,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="18"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -7655,7 +7657,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="18"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -7675,7 +7677,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
@@ -7695,7 +7697,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
@@ -7715,7 +7717,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -7735,7 +7737,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -7755,7 +7757,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="18"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -7775,7 +7777,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -7789,7 +7791,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="19"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -7809,7 +7811,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="19"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -7830,7 +7832,7 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="19"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="7" t="s">
         <v>24</v>
       </c>
@@ -7850,7 +7852,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="19"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
@@ -7871,7 +7873,7 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="19"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
@@ -7891,7 +7893,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="19"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
@@ -7911,7 +7913,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="19"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
@@ -7931,7 +7933,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="19"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
@@ -7951,7 +7953,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -7965,7 +7967,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="20"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
@@ -7986,7 +7988,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="20"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
@@ -8007,7 +8009,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="20"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
@@ -8028,7 +8030,7 @@
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="20"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="1" t="s">
         <v>34</v>
       </c>
@@ -8049,7 +8051,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="20"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -8070,7 +8072,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="20"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
@@ -8091,7 +8093,7 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="20"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="1" t="s">
         <v>28</v>
       </c>
@@ -8112,7 +8114,7 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -8126,7 +8128,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="21"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
@@ -8144,10 +8146,10 @@
         <f>$D$48-D49</f>
         <v>6.8999999999999062E-2</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="45"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="21"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="7" t="s">
         <v>30</v>
       </c>
@@ -8165,10 +8167,10 @@
         <f t="shared" ref="F50:F54" si="17">$D$48-D50</f>
         <v>-0.1039999999999992</v>
       </c>
-      <c r="G50" s="17"/>
+      <c r="G50" s="45"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="21"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
@@ -8186,10 +8188,10 @@
         <f t="shared" si="17"/>
         <v>-0.10299999999999798</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="45"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="21"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="1" t="s">
         <v>26</v>
       </c>
@@ -8207,10 +8209,10 @@
         <f t="shared" si="17"/>
         <v>-0.17399999999999949</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="45"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="21"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="1" t="s">
         <v>27</v>
       </c>
@@ -8228,10 +8230,10 @@
         <f t="shared" si="17"/>
         <v>4.7000000000000597E-2</v>
       </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="45"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="21"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="1" t="s">
         <v>28</v>
       </c>
@@ -8249,7 +8251,7 @@
         <f t="shared" si="17"/>
         <v>-0.16699999999999804</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8420,7 +8422,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8434,7 +8436,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
@@ -8454,7 +8456,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
@@ -8477,7 +8479,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>36</v>
       </c>
@@ -8497,7 +8499,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -8517,7 +8519,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -8537,7 +8539,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -8557,7 +8559,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -8571,7 +8573,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
@@ -8594,7 +8596,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="7" t="s">
         <v>36</v>
       </c>
@@ -8614,7 +8616,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -8634,7 +8636,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -8654,7 +8656,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -8674,7 +8676,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -8686,12 +8688,12 @@
       <c r="D15" s="3">
         <v>27.928000000000001</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="7" t="s">
         <v>36</v>
       </c>
@@ -8709,10 +8711,10 @@
         <f>$D$15-D16</f>
         <v>0.15399999999999991</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -8730,10 +8732,10 @@
         <f>$D$15-D17</f>
         <v>-1.8000000000000682E-2</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -8751,10 +8753,10 @@
         <f t="shared" ref="F18:F19" si="7">$D$15-D18</f>
         <v>-9.0000000000003411E-3</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -8772,20 +8774,20 @@
         <f t="shared" si="7"/>
         <v>0.12700000000000244</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -8799,7 +8801,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -8822,7 +8824,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
@@ -8842,7 +8844,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="18"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -8865,7 +8867,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="18"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
@@ -8885,7 +8887,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
@@ -8908,7 +8910,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="1" t="s">
         <v>34</v>
       </c>
@@ -8928,7 +8930,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -8948,7 +8950,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
@@ -8968,7 +8970,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="18"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
@@ -8988,7 +8990,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -9002,7 +9004,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="19"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -9022,7 +9024,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="19"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -9045,7 +9047,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="19"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="8" t="s">
         <v>35</v>
       </c>
@@ -9068,7 +9070,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="19"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="7" t="s">
         <v>33</v>
       </c>
@@ -9089,7 +9091,7 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="19"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
@@ -9109,7 +9111,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="19"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
@@ -9129,7 +9131,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="19"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
@@ -9149,7 +9151,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="19"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
@@ -9169,7 +9171,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -9183,7 +9185,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="20"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="1" t="s">
         <v>22</v>
       </c>
@@ -9204,7 +9206,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="20"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="7" t="s">
         <v>30</v>
       </c>
@@ -9224,7 +9226,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="20"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="7" t="s">
         <v>33</v>
       </c>
@@ -9245,7 +9247,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="20"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="1" t="s">
         <v>34</v>
       </c>
@@ -9266,7 +9268,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="20"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -9287,7 +9289,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="20"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="7" t="s">
         <v>27</v>
       </c>
@@ -9307,7 +9309,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="20"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
@@ -9330,7 +9332,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -9344,7 +9346,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A49" s="21"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
@@ -9365,7 +9367,7 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A50" s="21"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="7" t="s">
         <v>30</v>
       </c>
@@ -9386,7 +9388,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A51" s="21"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="8" t="s">
         <v>33</v>
       </c>
@@ -9409,7 +9411,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A52" s="21"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
@@ -9430,7 +9432,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A53" s="21"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
@@ -9451,7 +9453,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="21"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="7" t="s">
         <v>27</v>
       </c>
@@ -9472,7 +9474,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="50" t="s">
         <v>42</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -9486,7 +9488,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A56" s="22"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="1" t="s">
         <v>22</v>
       </c>
@@ -9506,7 +9508,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A57" s="22"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="7" t="s">
         <v>30</v>
       </c>
@@ -9526,7 +9528,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="22"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="8" t="s">
         <v>44</v>
       </c>
@@ -9549,7 +9551,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" s="22"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="1" t="s">
         <v>26</v>
       </c>
@@ -9569,7 +9571,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" s="22"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="7" t="s">
         <v>27</v>
       </c>
@@ -9589,7 +9591,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="51" t="s">
         <v>43</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -9603,7 +9605,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="23"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="1" t="s">
         <v>22</v>
       </c>
@@ -9623,7 +9625,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A63" s="23"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="7" t="s">
         <v>30</v>
       </c>
@@ -9646,7 +9648,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A64" s="23"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="1" t="s">
         <v>26</v>
       </c>
@@ -9666,7 +9668,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="23"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="7" t="s">
         <v>27</v>
       </c>
@@ -9989,366 +9991,366 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="16">
         <v>32.174999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>32.06</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="16">
         <v>32.186999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="16">
         <v>32.183999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="16">
         <v>50.552</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="18">
         <v>32.06</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="29">
         <v>31.440999999999999</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="29">
         <v>0.61899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="18">
         <v>31.486999999999998</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="18">
         <v>0.57199999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="18">
         <v>33.103999999999999</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="18">
         <v>-1.044</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="18">
         <v>31.895</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="18">
         <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="18">
         <v>32.787999999999997</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="18">
         <v>-0.72799999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="18">
         <v>32.667999999999999</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="18">
         <v>-0.60799999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="18">
         <v>31.440999999999999</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="18">
         <v>31.741</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="18">
         <v>-0.3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="18">
         <v>31.648</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="18">
         <v>-0.20799999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="18">
         <v>31.509</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="18">
         <v>-6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="18">
         <v>32.069000000000003</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="18">
         <v>-0.628</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="18">
         <v>33.506999999999998</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="18">
         <v>-2.0670000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="20">
         <v>31.440999999999999</v>
       </c>
-      <c r="C24" s="30"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="20">
         <v>32.234999999999999</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="20">
         <v>-0.79400000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="29">
         <v>31.018000000000001</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="29">
         <v>0.42299999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="20">
         <v>31.308</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="20">
         <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="20">
         <v>33.414999999999999</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="20">
         <v>-1.974</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="20">
         <v>33.082999999999998</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="20">
         <v>-1.6419999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="20">
         <v>31.466000000000001</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="20">
         <v>-2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="20">
         <v>31.36</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="20">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="20">
         <v>31.018000000000001</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="20">
         <v>31.841999999999999</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="20">
         <v>-0.82399999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="20">
         <v>32.92</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="20">
         <v>-1.903</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="20">
         <v>31.672999999999998</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="20">
         <v>-0.65600000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="20">
         <v>33.216999999999999</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="20">
         <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="20">
         <v>30.969000000000001</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="20">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="20">
         <v>31.012</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="20">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -10369,344 +10371,344 @@
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="22">
         <v>33.692999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="29">
         <v>31.811</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="22">
         <v>33.546999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="22">
         <v>32.030999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="22">
         <v>33.219000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="24">
         <v>31.811</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="29">
         <v>31.352</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="29">
         <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="24">
         <v>33.014000000000003</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="24">
         <v>-1.204</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="24">
         <v>32.588999999999999</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="24">
         <v>-0.77800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="24">
         <v>31.864999999999998</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="24">
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="24">
         <v>31.8</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="24">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="24">
         <v>33.198999999999998</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="24">
         <v>-1.3879999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="24">
         <v>31.352</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="24">
         <v>31.175999999999998</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="24">
         <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="24">
         <v>31.698</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="24">
         <v>-0.34599999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="24">
         <v>33.058999999999997</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="24">
         <v>-1.7070000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="24">
         <v>32.000999999999998</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="24">
         <v>-0.64900000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="24">
         <v>31.420999999999999</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="24">
         <v>-6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="26">
         <v>31.352</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="29">
         <v>30.292000000000002</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="29">
         <v>1.06</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="26">
         <v>32.023000000000003</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="26">
         <v>-0.67100000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="26">
         <v>30.734999999999999</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="26">
         <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="26">
         <v>32.058999999999997</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="26">
         <v>-0.70699999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="26">
         <v>32.875</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="26">
         <v>-1.522</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="26">
         <v>30.402999999999999</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="26">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="26">
         <v>31.6</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="26">
         <v>-0.248</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="26">
         <v>30.292000000000002</v>
       </c>
-      <c r="C32" s="36"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="26">
         <v>30.405999999999999</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="26">
         <v>-0.114</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="26">
         <v>31.321999999999999</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="26">
         <v>-1.0289999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="26">
         <v>30.818999999999999</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="26">
         <v>-0.52600000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="26">
         <v>31.462</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="26">
         <v>-1.17</v>
       </c>
     </row>
@@ -10728,12 +10730,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13">
@@ -10741,7 +10743,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="12">
@@ -10749,7 +10751,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="12">
@@ -10757,7 +10759,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="12">
@@ -10765,7 +10767,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="12">
@@ -10774,15 +10776,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="12">
@@ -10791,7 +10793,7 @@
       <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="12">
@@ -10802,7 +10804,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="13">
@@ -10813,7 +10815,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="12">
@@ -10824,7 +10826,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="12">
@@ -10835,7 +10837,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="12">
@@ -10846,7 +10848,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="12">
@@ -10857,7 +10859,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="12">
@@ -10866,7 +10868,7 @@
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="12">
@@ -10877,7 +10879,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="13">
@@ -10888,7 +10890,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="12">
@@ -10899,7 +10901,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="12">
@@ -10910,7 +10912,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="12">
@@ -10921,7 +10923,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="12">
@@ -10930,7 +10932,7 @@
       <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="12">
@@ -10941,7 +10943,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="12">
@@ -10952,7 +10954,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="12">
@@ -10963,7 +10965,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="12">
@@ -10975,15 +10977,15 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="12">
@@ -10992,7 +10994,7 @@
       <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="12">
@@ -11003,7 +11005,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="12">
@@ -11014,7 +11016,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="12">
@@ -11025,7 +11027,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="13">
@@ -11036,7 +11038,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="12">
@@ -11047,7 +11049,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="12">
@@ -11058,7 +11060,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="12">
@@ -11069,7 +11071,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="12">
@@ -11080,7 +11082,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="12">
@@ -11089,7 +11091,7 @@
       <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="12">
@@ -11100,7 +11102,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="12">
@@ -11111,7 +11113,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="12">
@@ -11122,7 +11124,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="12">
@@ -11133,7 +11135,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="13">
@@ -11144,7 +11146,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="12">
@@ -11155,7 +11157,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="12">
@@ -11164,7 +11166,7 @@
       <c r="C45" s="12"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="12">
@@ -11175,7 +11177,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="12">
@@ -11186,7 +11188,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="12">
@@ -11197,7 +11199,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="12">
@@ -11208,7 +11210,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="12">
@@ -11236,12 +11238,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13">
@@ -11249,7 +11251,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="12">
@@ -11257,7 +11259,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="12">
@@ -11265,7 +11267,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="12">
@@ -11273,7 +11275,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="12">
@@ -11282,15 +11284,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="12">
@@ -11299,7 +11301,7 @@
       <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="13">
@@ -11310,7 +11312,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="12">
@@ -11321,7 +11323,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="12">
@@ -11332,7 +11334,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="12">
@@ -11343,7 +11345,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="12">
@@ -11354,7 +11356,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="12">
@@ -11365,7 +11367,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="12">
@@ -11374,7 +11376,7 @@
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="13">
@@ -11385,7 +11387,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="12">
@@ -11396,7 +11398,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="12">
@@ -11407,7 +11409,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="12">
@@ -11418,7 +11420,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="12">
@@ -11429,7 +11431,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="12">
@@ -11438,7 +11440,7 @@
       <c r="C22" s="12"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="12">
@@ -11449,7 +11451,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="12">
@@ -11460,7 +11462,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="12">
@@ -11471,7 +11473,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="12">
@@ -11483,15 +11485,15 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="12">
@@ -11500,7 +11502,7 @@
       <c r="C29" s="12"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="12">
@@ -11511,7 +11513,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="12">
@@ -11522,7 +11524,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="12">
@@ -11533,7 +11535,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="12">
@@ -11544,7 +11546,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="12">
@@ -11555,7 +11557,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="12">
@@ -11566,7 +11568,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="12">
